--- a/data/mall-swarm/mall-admin_structure.xlsx
+++ b/data/mall-swarm/mall-admin_structure.xlsx
@@ -1831,24 +1831,24 @@
     <t>REDIS_EXPIRE</t>
   </si>
   <si>
+    <t>redisService</t>
+  </si>
+  <si>
+    <t>com.macro.mall.common.service.RedisService</t>
+  </si>
+  <si>
     <t>REDIS_KEY_ADMIN</t>
   </si>
   <si>
     <t>REDIS_DATABASE</t>
   </si>
   <si>
-    <t>redisService</t>
-  </si>
-  <si>
-    <t>com.macro.mall.common.service.RedisService</t>
+    <t>orderId</t>
   </si>
   <si>
     <t>deliverySn</t>
   </si>
   <si>
-    <t>orderId</t>
-  </si>
-  <si>
     <t>deliveryCompany</t>
   </si>
   <si>
@@ -1870,30 +1870,30 @@
     <t>com.macro.mall.mapper.OmsOrderOperateHistoryMapper</t>
   </si>
   <si>
+    <t>orderOperateHistoryDao</t>
+  </si>
+  <si>
+    <t>orderMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.OmsOrderMapper</t>
+  </si>
+  <si>
     <t>orderDao</t>
   </si>
   <si>
-    <t>orderMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.OmsOrderMapper</t>
-  </si>
-  <si>
-    <t>orderOperateHistoryDao</t>
-  </si>
-  <si>
     <t>menuMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.UmsMenuMapper</t>
   </si>
   <si>
+    <t>historyList</t>
+  </si>
+  <si>
     <t>orderItemList</t>
   </si>
   <si>
-    <t>historyList</t>
-  </si>
-  <si>
     <t>attributeId</t>
   </si>
   <si>
@@ -1915,45 +1915,45 @@
     <t>productCategoryService</t>
   </si>
   <si>
+    <t>handleMan</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>createTime</t>
+  </si>
+  <si>
     <t>handleTime</t>
   </si>
   <si>
-    <t>createTime</t>
+    <t>receiverKeyword</t>
   </si>
   <si>
     <t>status</t>
   </si>
   <si>
-    <t>receiverKeyword</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>handleMan</t>
+    <t>receiverProvince</t>
+  </si>
+  <si>
+    <t>receiverName</t>
+  </si>
+  <si>
+    <t>receiverDetailAddress</t>
+  </si>
+  <si>
+    <t>receiverPostCode</t>
   </si>
   <si>
     <t>receiverRegion</t>
   </si>
   <si>
-    <t>receiverProvince</t>
-  </si>
-  <si>
-    <t>receiverPostCode</t>
+    <t>receiverCity</t>
   </si>
   <si>
     <t>receiverPhone</t>
   </si>
   <si>
-    <t>receiverDetailAddress</t>
-  </si>
-  <si>
-    <t>receiverCity</t>
-  </si>
-  <si>
-    <t>receiverName</t>
-  </si>
-  <si>
     <t>children</t>
   </si>
   <si>
@@ -1978,21 +1978,21 @@
     <t>homeBrandService</t>
   </si>
   <si>
+    <t>width</t>
+  </si>
+  <si>
     <t>mimeType</t>
   </si>
   <si>
-    <t>width</t>
+    <t>height</t>
+  </si>
+  <si>
+    <t>filename</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
     <t>productCategoryRelationList</t>
   </si>
   <si>
@@ -2014,10 +2014,16 @@
     <t>callbackUrl</t>
   </si>
   <si>
+    <t>callbackBody</t>
+  </si>
+  <si>
     <t>callbackBodyType</t>
   </si>
   <si>
-    <t>callbackBody</t>
+    <t>showStatus</t>
+  </si>
+  <si>
+    <t>bigPic</t>
   </si>
   <si>
     <t>firstLetter</t>
@@ -2029,36 +2035,30 @@
     <t>brandStory</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>sort</t>
   </si>
   <si>
     <t>factoryStatus</t>
   </si>
   <si>
-    <t>showStatus</t>
-  </si>
-  <si>
-    <t>bigPic</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>handleNote</t>
   </si>
   <si>
     <t>companyAddressId</t>
   </si>
   <si>
+    <t>returnAmount</t>
+  </si>
+  <si>
+    <t>receiveMan</t>
+  </si>
+  <si>
     <t>receiveNote</t>
   </si>
   <si>
-    <t>returnAmount</t>
-  </si>
-  <si>
-    <t>handleNote</t>
-  </si>
-  <si>
-    <t>receiveMan</t>
-  </si>
-  <si>
     <t>advertiseService</t>
   </si>
   <si>
@@ -2068,30 +2068,30 @@
     <t>username</t>
   </si>
   <si>
+    <t>relationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsFlashPromotionProductRelationMapper</t>
+  </si>
+  <si>
     <t>relationDao</t>
   </si>
   <si>
-    <t>relationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsFlashPromotionProductRelationMapper</t>
-  </si>
-  <si>
     <t>productCount</t>
   </si>
   <si>
     <t>historyService</t>
   </si>
   <si>
+    <t>ALIYUN_OSS_ACCESSKEYID</t>
+  </si>
+  <si>
+    <t>ALIYUN_OSS_ENDPOINT</t>
+  </si>
+  <si>
     <t>ALIYUN_OSS_ACCESSKEYSECRET</t>
   </si>
   <si>
-    <t>ALIYUN_OSS_ACCESSKEYID</t>
-  </si>
-  <si>
-    <t>ALIYUN_OSS_ENDPOINT</t>
-  </si>
-  <si>
     <t>productAttributeCategoryDao</t>
   </si>
   <si>
@@ -2125,36 +2125,36 @@
     <t>com.macro.mall.mapper.UmsResourceMapper</t>
   </si>
   <si>
+    <t>roleResourceRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsRoleResourceRelationMapper</t>
+  </si>
+  <si>
     <t>applicationName</t>
   </si>
   <si>
-    <t>roleResourceRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsRoleResourceRelationMapper</t>
-  </si>
-  <si>
     <t>productAttributeService</t>
   </si>
   <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>productSn</t>
+  </si>
+  <si>
+    <t>brandId</t>
+  </si>
+  <si>
+    <t>verifyStatus</t>
+  </si>
+  <si>
     <t>publishStatus</t>
   </si>
   <si>
     <t>productCategoryId</t>
   </si>
   <si>
-    <t>brandId</t>
-  </si>
-  <si>
-    <t>productSn</t>
-  </si>
-  <si>
-    <t>verifyStatus</t>
-  </si>
-  <si>
-    <t>keyword</t>
-  </si>
-  <si>
     <t>memberLevelService</t>
   </si>
   <si>
@@ -2173,21 +2173,21 @@
     <t>com.macro.mall.mapper.SmsCouponProductCategoryRelationMapper</t>
   </si>
   <si>
+    <t>couponDao</t>
+  </si>
+  <si>
+    <t>productRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsCouponProductRelationMapper</t>
+  </si>
+  <si>
+    <t>productCategoryRelationDao</t>
+  </si>
+  <si>
     <t>productRelationDao</t>
   </si>
   <si>
-    <t>couponDao</t>
-  </si>
-  <si>
-    <t>productCategoryRelationDao</t>
-  </si>
-  <si>
-    <t>productRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsCouponProductRelationMapper</t>
-  </si>
-  <si>
     <t>prefrenceAreaMapper</t>
   </si>
   <si>
@@ -2233,30 +2233,30 @@
     <t>orderService</t>
   </si>
   <si>
+    <t>ALIYUN_OSS_DIR_PREFIX</t>
+  </si>
+  <si>
+    <t>ossClient</t>
+  </si>
+  <si>
+    <t>LOGGER</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
+    <t>ALIYUN_OSS_BUCKET_NAME</t>
+  </si>
+  <si>
+    <t>ALIYUN_OSS_MAX_SIZE</t>
+  </si>
+  <si>
     <t>ALIYUN_OSS_EXPIRE</t>
   </si>
   <si>
     <t>ALIYUN_OSS_CALLBACK</t>
   </si>
   <si>
-    <t>LOGGER</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
-    <t>ossClient</t>
-  </si>
-  <si>
-    <t>ALIYUN_OSS_DIR_PREFIX</t>
-  </si>
-  <si>
-    <t>ALIYUN_OSS_MAX_SIZE</t>
-  </si>
-  <si>
-    <t>ALIYUN_OSS_BUCKET_NAME</t>
-  </si>
-  <si>
     <t>com.macro.mall.mapper.SmsHomeRecommendSubjectMapper</t>
   </si>
   <si>
@@ -2266,15 +2266,15 @@
     <t>Principal</t>
   </si>
   <si>
+    <t>Action</t>
+  </si>
+  <si>
     <t>Resource</t>
   </si>
   <si>
     <t>Effect</t>
   </si>
   <si>
-    <t>Action</t>
-  </si>
-  <si>
     <t>returnApplyDao</t>
   </si>
   <si>
@@ -2284,6 +2284,9 @@
     <t>com.macro.mall.mapper.OmsOrderReturnApplyMapper</t>
   </si>
   <si>
+    <t>productCategoryDao</t>
+  </si>
+  <si>
     <t>productCategoryAttributeRelationDao</t>
   </si>
   <si>
@@ -2299,30 +2302,27 @@
     <t>com.macro.mall.mapper.PmsProductCategoryMapper</t>
   </si>
   <si>
-    <t>productCategoryDao</t>
-  </si>
-  <si>
     <t>orderSettingService</t>
   </si>
   <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>productAttributeIdList</t>
+  </si>
+  <si>
+    <t>navStatus</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>parentId</t>
+  </si>
+  <si>
     <t>productUnit</t>
   </si>
   <si>
-    <t>productAttributeIdList</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>parentId</t>
-  </si>
-  <si>
-    <t>navStatus</t>
-  </si>
-  <si>
     <t>keywords</t>
   </si>
   <si>
@@ -2362,33 +2362,33 @@
     <t>productAttributeList</t>
   </si>
   <si>
+    <t>adminRoleRelationDao</t>
+  </si>
+  <si>
     <t>adminRoleRelationMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.UmsAdminRoleRelationMapper</t>
   </si>
   <si>
+    <t>loginLogMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsAdminLoginLogMapper</t>
+  </si>
+  <si>
     <t>adminMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.UmsAdminMapper</t>
   </si>
   <si>
-    <t>adminRoleRelationDao</t>
-  </si>
-  <si>
     <t>request</t>
   </si>
   <si>
     <t>javax.servlet.http.HttpServletRequest</t>
   </si>
   <si>
-    <t>loginLogMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsAdminLoginLogMapper</t>
-  </si>
-  <si>
     <t>authService</t>
   </si>
   <si>
@@ -2404,18 +2404,18 @@
     <t>dir</t>
   </si>
   <si>
+    <t>accessKeyId</t>
+  </si>
+  <si>
     <t>policy</t>
   </si>
   <si>
+    <t>callback</t>
+  </si>
+  <si>
     <t>host</t>
   </si>
   <si>
-    <t>accessKeyId</t>
-  </si>
-  <si>
-    <t>callback</t>
-  </si>
-  <si>
     <t>signature</t>
   </si>
   <si>
@@ -2440,42 +2440,42 @@
     <t>com.macro.mall.mapper.CmsSubjectMapper</t>
   </si>
   <si>
+    <t>subjectProductRelationList</t>
+  </si>
+  <si>
+    <t>productFullReductionList</t>
+  </si>
+  <si>
+    <t>productAttributeValueList</t>
+  </si>
+  <si>
+    <t>productLadderList</t>
+  </si>
+  <si>
+    <t>prefrenceAreaProductRelationList</t>
+  </si>
+  <si>
+    <t>memberPriceList</t>
+  </si>
+  <si>
     <t>skuStockList</t>
   </si>
   <si>
-    <t>productFullReductionList</t>
-  </si>
-  <si>
-    <t>memberPriceList</t>
-  </si>
-  <si>
-    <t>subjectProductRelationList</t>
-  </si>
-  <si>
-    <t>productAttributeValueList</t>
-  </si>
-  <si>
-    <t>prefrenceAreaProductRelationList</t>
-  </si>
-  <si>
-    <t>productLadderList</t>
-  </si>
-  <si>
     <t>flashPromotionSessionService</t>
   </si>
   <si>
+    <t>ENDPOINT</t>
+  </si>
+  <si>
+    <t>ACCESS_KEY</t>
+  </si>
+  <si>
+    <t>SECRET_KEY</t>
+  </si>
+  <si>
     <t>BUCKET_NAME</t>
   </si>
   <si>
-    <t>ENDPOINT</t>
-  </si>
-  <si>
-    <t>ACCESS_KEY</t>
-  </si>
-  <si>
-    <t>SECRET_KEY</t>
-  </si>
-  <si>
     <t>advertiseMapper</t>
   </si>
   <si>
@@ -2485,64 +2485,67 @@
     <t>returnApplyService</t>
   </si>
   <si>
+    <t>productVertifyRecordDao</t>
+  </si>
+  <si>
+    <t>productFullReductionMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductFullReductionMapper</t>
+  </si>
+  <si>
+    <t>memberPriceMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsMemberPriceMapper</t>
+  </si>
+  <si>
+    <t>prefrenceAreaProductRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.CmsPrefrenceAreaProductRelationMapper</t>
+  </si>
+  <si>
+    <t>productLadderDao</t>
+  </si>
+  <si>
+    <t>memberPriceDao</t>
+  </si>
+  <si>
+    <t>prefrenceAreaProductRelationDao</t>
+  </si>
+  <si>
+    <t>productAttributeValueDao</t>
+  </si>
+  <si>
+    <t>subjectProductRelationDao</t>
+  </si>
+  <si>
     <t>productDao</t>
   </si>
   <si>
+    <t>productLadderMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductLadderMapper</t>
+  </si>
+  <si>
+    <t>productAttributeValueMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductAttributeValueMapper</t>
+  </si>
+  <si>
+    <t>subjectProductRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.CmsSubjectProductRelationMapper</t>
+  </si>
+  <si>
     <t>productFullReductionDao</t>
   </si>
   <si>
-    <t>productLadderDao</t>
-  </si>
-  <si>
-    <t>productLadderMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductLadderMapper</t>
-  </si>
-  <si>
-    <t>productVertifyRecordDao</t>
-  </si>
-  <si>
-    <t>prefrenceAreaProductRelationDao</t>
-  </si>
-  <si>
-    <t>memberPriceMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsMemberPriceMapper</t>
-  </si>
-  <si>
-    <t>productFullReductionMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductFullReductionMapper</t>
-  </si>
-  <si>
-    <t>productAttributeValueDao</t>
-  </si>
-  <si>
-    <t>subjectProductRelationDao</t>
-  </si>
-  <si>
-    <t>prefrenceAreaProductRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.CmsPrefrenceAreaProductRelationMapper</t>
-  </si>
-  <si>
-    <t>productAttributeValueMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductAttributeValueMapper</t>
-  </si>
-  <si>
-    <t>memberPriceDao</t>
-  </si>
-  <si>
-    <t>subjectProductRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.CmsSubjectProductRelationMapper</t>
+    <t>roleDao</t>
   </si>
   <si>
     <t>roleMenuRelationMapper</t>
@@ -2551,9 +2554,6 @@
     <t>com.macro.mall.mapper.UmsRoleMenuRelationMapper</t>
   </si>
   <si>
-    <t>roleDao</t>
-  </si>
-  <si>
     <t>brandService</t>
   </si>
   <si>
@@ -2569,43 +2569,43 @@
     <t>product</t>
   </si>
   <si>
+    <t>handAddStatus</t>
+  </si>
+  <si>
+    <t>filterType</t>
+  </si>
+  <si>
+    <t>productAttributeCategoryId</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>inputList</t>
+  </si>
+  <si>
     <t>searchType</t>
   </si>
   <si>
-    <t>inputList</t>
+    <t>selectType</t>
+  </si>
+  <si>
+    <t>inputType</t>
   </si>
   <si>
     <t>relatedStatus</t>
   </si>
   <si>
-    <t>inputType</t>
-  </si>
-  <si>
-    <t>filterType</t>
-  </si>
-  <si>
-    <t>productAttributeCategoryId</t>
-  </si>
-  <si>
-    <t>handAddStatus</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>selectType</t>
-  </si>
-  <si>
     <t>promotionSessionMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.SmsFlashPromotionSessionMapper</t>
   </si>
   <si>
+    <t>note</t>
+  </si>
+  <si>
     <t>email</t>
-  </si>
-  <si>
-    <t>note</t>
   </si>
   <si>
     <t>nickName</t>
@@ -32157,7 +32157,7 @@
         <v>50</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>12</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5">
@@ -32165,7 +32165,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>50</v>
@@ -32179,13 +32179,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>606</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -32199,7 +32199,7 @@
         <v>50</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -32213,7 +32213,7 @@
         <v>50</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -32325,7 +32325,7 @@
         <v>50</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>386</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17">
@@ -32353,7 +32353,7 @@
         <v>50</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>338</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19">
@@ -32507,7 +32507,7 @@
         <v>50</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -32521,7 +32521,7 @@
         <v>50</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -32549,7 +32549,7 @@
         <v>50</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -32563,7 +32563,7 @@
         <v>50</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -32613,13 +32613,13 @@
         <v>134</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
@@ -32627,13 +32627,13 @@
         <v>134</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
@@ -32641,13 +32641,13 @@
         <v>134</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -32655,7 +32655,7 @@
         <v>134</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>50</v>
@@ -32669,7 +32669,7 @@
         <v>134</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>50</v>
@@ -32683,13 +32683,13 @@
         <v>134</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>608</v>
+        <v>643</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -32711,13 +32711,13 @@
         <v>158</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>608</v>
+        <v>645</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>30</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45">
@@ -32725,13 +32725,13 @@
         <v>158</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46">
@@ -32739,13 +32739,13 @@
         <v>158</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>633</v>
+        <v>607</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>130</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
@@ -32997,7 +32997,7 @@
         <v>50</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
@@ -33039,7 +33039,7 @@
         <v>50</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
@@ -33053,7 +33053,7 @@
         <v>50</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -33067,7 +33067,7 @@
         <v>50</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">
@@ -33081,7 +33081,7 @@
         <v>50</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71">
@@ -33095,7 +33095,7 @@
         <v>50</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72">
@@ -33103,7 +33103,7 @@
         <v>247</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>636</v>
+        <v>674</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>50</v>
@@ -33117,7 +33117,7 @@
         <v>247</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>50</v>
@@ -33131,7 +33131,7 @@
         <v>247</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>675</v>
+        <v>631</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>50</v>
@@ -33173,13 +33173,13 @@
         <v>247</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>633</v>
+        <v>678</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78">
@@ -33187,13 +33187,13 @@
         <v>247</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>30</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79">
@@ -33201,13 +33201,13 @@
         <v>247</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>678</v>
+        <v>632</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
@@ -33263,7 +33263,7 @@
         <v>50</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>176</v>
+        <v>683</v>
       </c>
     </row>
     <row r="84">
@@ -33271,13 +33271,13 @@
         <v>263</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>684</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85">
@@ -33425,13 +33425,13 @@
         <v>290</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>699</v>
+        <v>603</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>700</v>
+        <v>604</v>
       </c>
     </row>
     <row r="96">
@@ -33439,13 +33439,13 @@
         <v>290</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>12</v>
+        <v>700</v>
       </c>
     </row>
     <row r="97">
@@ -33453,13 +33453,13 @@
         <v>290</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="98">
@@ -33467,13 +33467,13 @@
         <v>290</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>605</v>
+        <v>703</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>606</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
@@ -33501,7 +33501,7 @@
         <v>50</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101">
@@ -33515,7 +33515,7 @@
         <v>50</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102">
@@ -33543,7 +33543,7 @@
         <v>50</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104">
@@ -33571,7 +33571,7 @@
         <v>50</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106">
@@ -33641,7 +33641,7 @@
         <v>50</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>175</v>
+        <v>373</v>
       </c>
     </row>
     <row r="111">
@@ -33655,7 +33655,7 @@
         <v>50</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>373</v>
+        <v>719</v>
       </c>
     </row>
     <row r="112">
@@ -33663,7 +33663,7 @@
         <v>320</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>50</v>
@@ -33677,13 +33677,13 @@
         <v>320</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>721</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114">
@@ -33879,7 +33879,7 @@
         <v>50</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128">
@@ -33893,7 +33893,7 @@
         <v>50</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>12</v>
+        <v>274</v>
       </c>
     </row>
     <row r="129">
@@ -33915,7 +33915,7 @@
         <v>375</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>689</v>
+        <v>741</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>50</v>
@@ -33929,13 +33929,13 @@
         <v>375</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>274</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132">
@@ -33943,13 +33943,13 @@
         <v>375</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133">
@@ -33957,13 +33957,13 @@
         <v>375</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134">
@@ -33971,7 +33971,7 @@
         <v>375</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>744</v>
+        <v>688</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>50</v>
@@ -34097,13 +34097,13 @@
         <v>395</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>754</v>
+        <v>661</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>507</v>
+        <v>662</v>
       </c>
     </row>
     <row r="144">
@@ -34111,13 +34111,13 @@
         <v>395</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>756</v>
+        <v>300</v>
       </c>
     </row>
     <row r="145">
@@ -34125,13 +34125,13 @@
         <v>395</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>758</v>
+        <v>507</v>
       </c>
     </row>
     <row r="146">
@@ -34139,13 +34139,13 @@
         <v>395</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>661</v>
+        <v>756</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>662</v>
+        <v>757</v>
       </c>
     </row>
     <row r="147">
@@ -34153,13 +34153,13 @@
         <v>395</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>300</v>
+        <v>759</v>
       </c>
     </row>
     <row r="148">
@@ -34181,7 +34181,7 @@
         <v>399</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>673</v>
+        <v>761</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>50</v>
@@ -34195,13 +34195,13 @@
         <v>399</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="151">
@@ -34209,13 +34209,13 @@
         <v>399</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>762</v>
+        <v>671</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152">
@@ -34229,7 +34229,7 @@
         <v>50</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="153">
@@ -34251,13 +34251,13 @@
         <v>399</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>671</v>
+        <v>765</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>130</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155">
@@ -34265,13 +34265,13 @@
         <v>399</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>765</v>
+        <v>672</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>30</v>
+        <v>130</v>
       </c>
     </row>
     <row r="156">
@@ -34285,7 +34285,7 @@
         <v>50</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157">
@@ -34307,7 +34307,7 @@
         <v>399</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>50</v>
@@ -34391,7 +34391,7 @@
         <v>421</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>775</v>
+        <v>671</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>50</v>
@@ -34405,7 +34405,7 @@
         <v>421</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>673</v>
+        <v>775</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>50</v>
@@ -34419,7 +34419,7 @@
         <v>424</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>776</v>
+        <v>636</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>50</v>
@@ -34433,13 +34433,13 @@
         <v>424</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>632</v>
+        <v>776</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="168">
@@ -34461,13 +34461,13 @@
         <v>424</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>634</v>
+        <v>778</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="170">
@@ -34475,13 +34475,13 @@
         <v>424</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>778</v>
+        <v>635</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171">
@@ -34495,7 +34495,7 @@
         <v>50</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172">
@@ -34537,7 +34537,7 @@
         <v>50</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>781</v>
+        <v>166</v>
       </c>
     </row>
     <row r="175">
@@ -34545,13 +34545,13 @@
         <v>435</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="176">
@@ -34559,13 +34559,13 @@
         <v>435</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>166</v>
+        <v>784</v>
       </c>
     </row>
     <row r="177">
@@ -34755,7 +34755,7 @@
         <v>466</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>799</v>
+        <v>681</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>50</v>
@@ -34769,7 +34769,7 @@
         <v>466</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>681</v>
+        <v>799</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>50</v>
@@ -34811,7 +34811,7 @@
         <v>381</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>50</v>
@@ -34825,7 +34825,7 @@
         <v>381</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>50</v>
@@ -34839,7 +34839,7 @@
         <v>381</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>50</v>
@@ -34853,7 +34853,7 @@
         <v>381</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>50</v>
@@ -35021,13 +35021,13 @@
         <v>588</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>739</v>
+        <v>815</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D209" t="s" s="0">
-        <v>740</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210">
@@ -35035,7 +35035,7 @@
         <v>588</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>50</v>
@@ -35049,13 +35049,13 @@
         <v>588</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>816</v>
+        <v>739</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D211" t="s" s="0">
-        <v>12</v>
+        <v>740</v>
       </c>
     </row>
     <row r="212">
@@ -35111,7 +35111,7 @@
         <v>50</v>
       </c>
       <c r="D215" t="s" s="0">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="216">
@@ -35125,7 +35125,7 @@
         <v>50</v>
       </c>
       <c r="D216" t="s" s="0">
-        <v>97</v>
+        <v>823</v>
       </c>
     </row>
     <row r="217">
@@ -35133,13 +35133,13 @@
         <v>496</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>823</v>
+        <v>774</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D217" t="s" s="0">
-        <v>96</v>
+        <v>331</v>
       </c>
     </row>
     <row r="218">
@@ -35167,7 +35167,7 @@
         <v>50</v>
       </c>
       <c r="D219" t="s" s="0">
-        <v>264</v>
+        <v>827</v>
       </c>
     </row>
     <row r="220">
@@ -35175,13 +35175,13 @@
         <v>496</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>827</v>
+        <v>739</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D220" t="s" s="0">
-        <v>301</v>
+        <v>740</v>
       </c>
     </row>
     <row r="221">
@@ -35195,7 +35195,7 @@
         <v>50</v>
       </c>
       <c r="D221" t="s" s="0">
-        <v>829</v>
+        <v>96</v>
       </c>
     </row>
     <row r="222">
@@ -35203,13 +35203,13 @@
         <v>496</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D222" t="s" s="0">
-        <v>831</v>
+        <v>215</v>
       </c>
     </row>
     <row r="223">
@@ -35217,13 +35217,13 @@
         <v>496</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C223" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D223" t="s" s="0">
-        <v>224</v>
+        <v>301</v>
       </c>
     </row>
     <row r="224">
@@ -35231,13 +35231,13 @@
         <v>496</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>833</v>
+        <v>772</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D224" t="s" s="0">
-        <v>95</v>
+        <v>773</v>
       </c>
     </row>
     <row r="225">
@@ -35245,13 +35245,13 @@
         <v>496</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>739</v>
+        <v>831</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D225" t="s" s="0">
-        <v>740</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226">
@@ -35259,13 +35259,13 @@
         <v>496</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D226" t="s" s="0">
-        <v>835</v>
+        <v>95</v>
       </c>
     </row>
     <row r="227">
@@ -35273,13 +35273,13 @@
         <v>496</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>774</v>
+        <v>833</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D227" t="s" s="0">
-        <v>331</v>
+        <v>268</v>
       </c>
     </row>
     <row r="228">
@@ -35287,13 +35287,13 @@
         <v>496</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>772</v>
+        <v>834</v>
       </c>
       <c r="C228" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D228" t="s" s="0">
-        <v>773</v>
+        <v>835</v>
       </c>
     </row>
     <row r="229">
@@ -35301,13 +35301,13 @@
         <v>496</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>836</v>
+        <v>661</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D229" t="s" s="0">
-        <v>837</v>
+        <v>662</v>
       </c>
     </row>
     <row r="230">
@@ -35315,13 +35315,13 @@
         <v>496</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>661</v>
+        <v>836</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D230" t="s" s="0">
-        <v>662</v>
+        <v>837</v>
       </c>
     </row>
     <row r="231">
@@ -35335,7 +35335,7 @@
         <v>50</v>
       </c>
       <c r="D231" t="s" s="0">
-        <v>215</v>
+        <v>839</v>
       </c>
     </row>
     <row r="232">
@@ -35343,13 +35343,13 @@
         <v>496</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D232" t="s" s="0">
-        <v>840</v>
+        <v>97</v>
       </c>
     </row>
     <row r="233">
@@ -35357,13 +35357,13 @@
         <v>503</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>697</v>
+        <v>649</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D233" t="s" s="0">
-        <v>698</v>
+        <v>431</v>
       </c>
     </row>
     <row r="234">
@@ -35371,13 +35371,13 @@
         <v>503</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>649</v>
+        <v>697</v>
       </c>
       <c r="C234" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D234" t="s" s="0">
-        <v>431</v>
+        <v>698</v>
       </c>
     </row>
     <row r="235">
@@ -35385,13 +35385,13 @@
         <v>503</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>841</v>
+        <v>701</v>
       </c>
       <c r="C235" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D235" t="s" s="0">
-        <v>842</v>
+        <v>702</v>
       </c>
     </row>
     <row r="236">
@@ -35399,13 +35399,13 @@
         <v>503</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>702</v>
+        <v>841</v>
       </c>
       <c r="C236" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D236" t="s" s="0">
-        <v>703</v>
+        <v>339</v>
       </c>
     </row>
     <row r="237">
@@ -35413,13 +35413,13 @@
         <v>503</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D237" t="s" s="0">
-        <v>339</v>
+        <v>843</v>
       </c>
     </row>
     <row r="238">
@@ -35525,7 +35525,7 @@
         <v>516</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>850</v>
+        <v>671</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>50</v>
@@ -35539,7 +35539,7 @@
         <v>516</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>50</v>
@@ -35553,13 +35553,13 @@
         <v>516</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>673</v>
+        <v>851</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D247" t="s" s="0">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="248">
@@ -35581,7 +35581,7 @@
         <v>516</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>853</v>
+        <v>672</v>
       </c>
       <c r="C249" t="s" s="0">
         <v>50</v>
@@ -35595,13 +35595,13 @@
         <v>516</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D250" t="s" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251">
@@ -35609,7 +35609,7 @@
         <v>516</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>50</v>
@@ -35623,7 +35623,7 @@
         <v>516</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>669</v>
+        <v>855</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>50</v>
@@ -35707,7 +35707,7 @@
         <v>537</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>50</v>
@@ -35735,7 +35735,7 @@
         <v>537</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>861</v>
+        <v>680</v>
       </c>
       <c r="C260" t="s" s="0">
         <v>50</v>
@@ -35749,7 +35749,7 @@
         <v>537</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C261" t="s" s="0">
         <v>50</v>
@@ -35763,7 +35763,7 @@
         <v>537</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>680</v>
+        <v>862</v>
       </c>
       <c r="C262" t="s" s="0">
         <v>50</v>
@@ -35777,13 +35777,13 @@
         <v>544</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>863</v>
+        <v>691</v>
       </c>
       <c r="C263" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D263" t="s" s="0">
-        <v>384</v>
+        <v>692</v>
       </c>
     </row>
     <row r="264">
@@ -35791,13 +35791,13 @@
         <v>544</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>691</v>
+        <v>863</v>
       </c>
       <c r="C264" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D264" t="s" s="0">
-        <v>692</v>
+        <v>384</v>
       </c>
     </row>
     <row r="265">
@@ -45444,7 +45444,7 @@
         <v>492</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>871</v>
@@ -45461,7 +45461,7 @@
         <v>492</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>871</v>
@@ -45478,7 +45478,7 @@
         <v>492</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>871</v>
@@ -45495,7 +45495,7 @@
         <v>492</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>871</v>
@@ -45512,7 +45512,7 @@
         <v>492</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>871</v>
@@ -45563,7 +45563,7 @@
         <v>492</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>871</v>
@@ -45580,7 +45580,7 @@
         <v>492</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>871</v>
@@ -45597,7 +45597,7 @@
         <v>492</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>871</v>
@@ -45614,7 +45614,7 @@
         <v>492</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>871</v>
@@ -45631,7 +45631,7 @@
         <v>492</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>871</v>
@@ -45648,7 +45648,7 @@
         <v>492</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>871</v>
@@ -45665,7 +45665,7 @@
         <v>492</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>871</v>

--- a/data/mall-swarm/mall-admin_structure.xlsx
+++ b/data/mall-swarm/mall-admin_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15259" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15264" uniqueCount="949">
   <si>
     <t>Class Name</t>
   </si>
@@ -1827,33 +1827,33 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>REDIS_DATABASE</t>
+  </si>
+  <si>
+    <t>adminService</t>
+  </si>
+  <si>
+    <t>REDIS_KEY_ADMIN</t>
+  </si>
+  <si>
+    <t>REDIS_EXPIRE</t>
+  </si>
+  <si>
     <t>redisService</t>
   </si>
   <si>
     <t>com.macro.mall.common.service.RedisService</t>
   </si>
   <si>
-    <t>REDIS_KEY_ADMIN</t>
-  </si>
-  <si>
-    <t>REDIS_DATABASE</t>
-  </si>
-  <si>
-    <t>adminService</t>
-  </si>
-  <si>
-    <t>REDIS_EXPIRE</t>
+    <t>deliverySn</t>
+  </si>
+  <si>
+    <t>orderId</t>
   </si>
   <si>
     <t>deliveryCompany</t>
   </si>
   <si>
-    <t>orderId</t>
-  </si>
-  <si>
-    <t>deliverySn</t>
-  </si>
-  <si>
     <t>homeNewProductService</t>
   </si>
   <si>
@@ -1866,24 +1866,24 @@
     <t>com.macro.mall.mapper.OmsCompanyAddressMapper</t>
   </si>
   <si>
+    <t>orderDao</t>
+  </si>
+  <si>
+    <t>orderOperateHistoryDao</t>
+  </si>
+  <si>
+    <t>orderMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.OmsOrderMapper</t>
+  </si>
+  <si>
     <t>orderOperateHistoryMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.OmsOrderOperateHistoryMapper</t>
   </si>
   <si>
-    <t>orderMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.OmsOrderMapper</t>
-  </si>
-  <si>
-    <t>orderOperateHistoryDao</t>
-  </si>
-  <si>
-    <t>orderDao</t>
-  </si>
-  <si>
     <t>menuMapper</t>
   </si>
   <si>
@@ -1917,54 +1917,54 @@
     <t>productCategoryService</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
+    <t>handleMan</t>
+  </si>
+  <si>
+    <t>handleTime</t>
+  </si>
+  <si>
+    <t>receiverKeyword</t>
+  </si>
+  <si>
     <t>createTime</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>handleMan</t>
-  </si>
-  <si>
-    <t>handleTime</t>
-  </si>
-  <si>
-    <t>receiverKeyword</t>
+    <t>receiverRegion</t>
+  </si>
+  <si>
+    <t>receiverPostCode</t>
   </si>
   <si>
     <t>receiverPhone</t>
   </si>
   <si>
-    <t>receiverPostCode</t>
+    <t>receiverName</t>
+  </si>
+  <si>
+    <t>receiverProvince</t>
+  </si>
+  <si>
+    <t>receiverDetailAddress</t>
   </si>
   <si>
     <t>receiverCity</t>
   </si>
   <si>
-    <t>receiverDetailAddress</t>
-  </si>
-  <si>
-    <t>receiverProvince</t>
-  </si>
-  <si>
-    <t>receiverName</t>
-  </si>
-  <si>
-    <t>receiverRegion</t>
-  </si>
-  <si>
     <t>children</t>
   </si>
   <si>
+    <t>freightAmount</t>
+  </si>
+  <si>
     <t>discountAmount</t>
   </si>
   <si>
-    <t>freightAmount</t>
-  </si>
-  <si>
     <t>memberLevelMapper</t>
   </si>
   <si>
@@ -1980,25 +1980,31 @@
     <t>homeBrandService</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>height</t>
   </si>
   <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
     <t>mimeType</t>
   </si>
   <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>filename</t>
+    <t>productCategoryRelationList</t>
   </si>
   <si>
     <t>productRelationList</t>
   </si>
   <si>
-    <t>productCategoryRelationList</t>
+    <t>productMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductMapper</t>
   </si>
   <si>
     <t>brandMapper</t>
@@ -2007,93 +2013,87 @@
     <t>com.macro.mall.mapper.PmsBrandMapper</t>
   </si>
   <si>
-    <t>productMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductMapper</t>
+    <t>callbackUrl</t>
+  </si>
+  <si>
+    <t>callbackBody</t>
   </si>
   <si>
     <t>callbackBodyType</t>
   </si>
   <si>
-    <t>callbackUrl</t>
-  </si>
-  <si>
-    <t>callbackBody</t>
+    <t>bigPic</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>bigPic</t>
+    <t>factoryStatus</t>
+  </si>
+  <si>
+    <t>firstLetter</t>
   </si>
   <si>
     <t>logo</t>
   </si>
   <si>
+    <t>showStatus</t>
+  </si>
+  <si>
     <t>sort</t>
   </si>
   <si>
-    <t>factoryStatus</t>
-  </si>
-  <si>
-    <t>firstLetter</t>
-  </si>
-  <si>
-    <t>showStatus</t>
-  </si>
-  <si>
     <t>brandStory</t>
   </si>
   <si>
+    <t>companyAddressId</t>
+  </si>
+  <si>
+    <t>returnAmount</t>
+  </si>
+  <si>
     <t>handleNote</t>
   </si>
   <si>
     <t>receiveNote</t>
   </si>
   <si>
-    <t>returnAmount</t>
-  </si>
-  <si>
-    <t>companyAddressId</t>
-  </si>
-  <si>
     <t>receiveMan</t>
   </si>
   <si>
     <t>advertiseService</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
-    <t>password</t>
+    <t>relationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsFlashPromotionProductRelationMapper</t>
   </si>
   <si>
     <t>relationDao</t>
   </si>
   <si>
-    <t>relationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsFlashPromotionProductRelationMapper</t>
-  </si>
-  <si>
     <t>productCount</t>
   </si>
   <si>
     <t>historyService</t>
   </si>
   <si>
+    <t>ALIYUN_OSS_ENDPOINT</t>
+  </si>
+  <si>
+    <t>ALIYUN_OSS_ACCESSKEYSECRET</t>
+  </si>
+  <si>
     <t>ALIYUN_OSS_ACCESSKEYID</t>
   </si>
   <si>
-    <t>ALIYUN_OSS_ENDPOINT</t>
-  </si>
-  <si>
-    <t>ALIYUN_OSS_ACCESSKEYSECRET</t>
-  </si>
-  <si>
     <t>productAttributeCategoryMapper</t>
   </si>
   <si>
@@ -2121,6 +2121,9 @@
     <t>com.macro.mall.mapper.UmsResourceMapper</t>
   </si>
   <si>
+    <t>applicationName</t>
+  </si>
+  <si>
     <t>roleMapper</t>
   </si>
   <si>
@@ -2133,27 +2136,24 @@
     <t>com.macro.mall.mapper.UmsRoleResourceRelationMapper</t>
   </si>
   <si>
-    <t>applicationName</t>
-  </si>
-  <si>
     <t>productAttributeService</t>
   </si>
   <si>
+    <t>keyword</t>
+  </si>
+  <si>
     <t>brandId</t>
   </si>
   <si>
+    <t>verifyStatus</t>
+  </si>
+  <si>
+    <t>productSn</t>
+  </si>
+  <si>
     <t>publishStatus</t>
   </si>
   <si>
-    <t>productSn</t>
-  </si>
-  <si>
-    <t>keyword</t>
-  </si>
-  <si>
-    <t>verifyStatus</t>
-  </si>
-  <si>
     <t>productCategoryId</t>
   </si>
   <si>
@@ -2169,15 +2169,15 @@
     <t>com.macro.mall.mapper.SmsCouponMapper</t>
   </si>
   <si>
+    <t>productRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsCouponProductRelationMapper</t>
+  </si>
+  <si>
     <t>productRelationDao</t>
   </si>
   <si>
-    <t>productRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsCouponProductRelationMapper</t>
-  </si>
-  <si>
     <t>productCategoryRelationDao</t>
   </si>
   <si>
@@ -2235,45 +2235,45 @@
     <t>orderService</t>
   </si>
   <si>
+    <t>ossClient</t>
+  </si>
+  <si>
+    <t>ALIYUN_OSS_EXPIRE</t>
+  </si>
+  <si>
+    <t>LOGGER</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
+    <t>ALIYUN_OSS_DIR_PREFIX</t>
+  </si>
+  <si>
+    <t>ALIYUN_OSS_BUCKET_NAME</t>
+  </si>
+  <si>
+    <t>ALIYUN_OSS_MAX_SIZE</t>
+  </si>
+  <si>
     <t>ALIYUN_OSS_CALLBACK</t>
   </si>
   <si>
-    <t>ALIYUN_OSS_DIR_PREFIX</t>
-  </si>
-  <si>
-    <t>ossClient</t>
-  </si>
-  <si>
-    <t>ALIYUN_OSS_MAX_SIZE</t>
-  </si>
-  <si>
-    <t>LOGGER</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
-    <t>ALIYUN_OSS_BUCKET_NAME</t>
-  </si>
-  <si>
-    <t>ALIYUN_OSS_EXPIRE</t>
-  </si>
-  <si>
     <t>com.macro.mall.mapper.SmsHomeRecommendSubjectMapper</t>
   </si>
   <si>
     <t>prefrenceAreaService</t>
   </si>
   <si>
+    <t>Effect</t>
+  </si>
+  <si>
     <t>Action</t>
   </si>
   <si>
     <t>Resource</t>
   </si>
   <si>
-    <t>Effect</t>
-  </si>
-  <si>
     <t>Principal</t>
   </si>
   <si>
@@ -2286,6 +2286,9 @@
     <t>com.macro.mall.mapper.OmsOrderReturnApplyMapper</t>
   </si>
   <si>
+    <t>productCategoryDao</t>
+  </si>
+  <si>
     <t>productCategoryAttributeRelationMapper</t>
   </si>
   <si>
@@ -2301,33 +2304,30 @@
     <t>com.macro.mall.mapper.PmsProductCategoryMapper</t>
   </si>
   <si>
-    <t>productCategoryDao</t>
-  </si>
-  <si>
     <t>orderSettingService</t>
   </si>
   <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>productAttributeIdList</t>
+  </si>
+  <si>
     <t>parentId</t>
   </si>
   <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>productUnit</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
     <t>navStatus</t>
   </si>
   <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>productAttributeIdList</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>productUnit</t>
-  </si>
-  <si>
     <t>homeBrandMapper</t>
   </si>
   <si>
@@ -2352,15 +2352,15 @@
     <t>url</t>
   </si>
   <si>
+    <t>sourceType</t>
+  </si>
+  <si>
     <t>orderSn</t>
   </si>
   <si>
     <t>orderType</t>
   </si>
   <si>
-    <t>sourceType</t>
-  </si>
-  <si>
     <t>productAttributeList</t>
   </si>
   <si>
@@ -2370,30 +2370,30 @@
     <t>javax.servlet.http.HttpServletRequest</t>
   </si>
   <si>
+    <t>adminMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsAdminMapper</t>
+  </si>
+  <si>
+    <t>loginLogMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsAdminLoginLogMapper</t>
+  </si>
+  <si>
+    <t>adminRoleRelationDao</t>
+  </si>
+  <si>
     <t>adminRoleRelationMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.UmsAdminRoleRelationMapper</t>
   </si>
   <si>
-    <t>adminMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsAdminMapper</t>
-  </si>
-  <si>
     <t>authService</t>
   </si>
   <si>
-    <t>adminRoleRelationDao</t>
-  </si>
-  <si>
-    <t>loginLogMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsAdminLoginLogMapper</t>
-  </si>
-  <si>
     <t>companyAddress</t>
   </si>
   <si>
@@ -2403,24 +2403,24 @@
     <t>ossService</t>
   </si>
   <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>dir</t>
+  </si>
+  <si>
     <t>host</t>
   </si>
   <si>
+    <t>accessKeyId</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
     <t>callback</t>
   </si>
   <si>
-    <t>accessKeyId</t>
-  </si>
-  <si>
-    <t>signature</t>
-  </si>
-  <si>
-    <t>dir</t>
-  </si>
-  <si>
-    <t>policy</t>
-  </si>
-  <si>
     <t>oldPassword</t>
   </si>
   <si>
@@ -2442,42 +2442,42 @@
     <t>com.macro.mall.mapper.CmsSubjectMapper</t>
   </si>
   <si>
+    <t>memberPriceList</t>
+  </si>
+  <si>
+    <t>subjectProductRelationList</t>
+  </si>
+  <si>
+    <t>productAttributeValueList</t>
+  </si>
+  <si>
+    <t>prefrenceAreaProductRelationList</t>
+  </si>
+  <si>
+    <t>productLadderList</t>
+  </si>
+  <si>
+    <t>skuStockList</t>
+  </si>
+  <si>
     <t>productFullReductionList</t>
   </si>
   <si>
-    <t>prefrenceAreaProductRelationList</t>
-  </si>
-  <si>
-    <t>productLadderList</t>
-  </si>
-  <si>
-    <t>skuStockList</t>
-  </si>
-  <si>
-    <t>subjectProductRelationList</t>
-  </si>
-  <si>
-    <t>memberPriceList</t>
-  </si>
-  <si>
-    <t>productAttributeValueList</t>
-  </si>
-  <si>
     <t>flashPromotionSessionService</t>
   </si>
   <si>
     <t>ENDPOINT</t>
   </si>
   <si>
+    <t>SECRET_KEY</t>
+  </si>
+  <si>
     <t>BUCKET_NAME</t>
   </si>
   <si>
     <t>ACCESS_KEY</t>
   </si>
   <si>
-    <t>SECRET_KEY</t>
-  </si>
-  <si>
     <t>advertiseMapper</t>
   </si>
   <si>
@@ -2487,64 +2487,67 @@
     <t>returnApplyService</t>
   </si>
   <si>
+    <t>memberPriceDao</t>
+  </si>
+  <si>
+    <t>memberPriceMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsMemberPriceMapper</t>
+  </si>
+  <si>
+    <t>prefrenceAreaProductRelationDao</t>
+  </si>
+  <si>
+    <t>productLadderMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductLadderMapper</t>
+  </si>
+  <si>
     <t>productVertifyRecordDao</t>
   </si>
   <si>
-    <t>productLadderMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductLadderMapper</t>
+    <t>prefrenceAreaProductRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.CmsPrefrenceAreaProductRelationMapper</t>
+  </si>
+  <si>
+    <t>subjectProductRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.CmsSubjectProductRelationMapper</t>
+  </si>
+  <si>
+    <t>productDao</t>
+  </si>
+  <si>
+    <t>productLadderDao</t>
+  </si>
+  <si>
+    <t>productFullReductionMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductFullReductionMapper</t>
+  </si>
+  <si>
+    <t>productFullReductionDao</t>
+  </si>
+  <si>
+    <t>productAttributeValueDao</t>
+  </si>
+  <si>
+    <t>productAttributeValueMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductAttributeValueMapper</t>
   </si>
   <si>
     <t>subjectProductRelationDao</t>
   </si>
   <si>
-    <t>productFullReductionMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductFullReductionMapper</t>
-  </si>
-  <si>
-    <t>productAttributeValueDao</t>
-  </si>
-  <si>
-    <t>productAttributeValueMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductAttributeValueMapper</t>
-  </si>
-  <si>
-    <t>memberPriceDao</t>
-  </si>
-  <si>
-    <t>subjectProductRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.CmsSubjectProductRelationMapper</t>
-  </si>
-  <si>
-    <t>productDao</t>
-  </si>
-  <si>
-    <t>productFullReductionDao</t>
-  </si>
-  <si>
-    <t>productLadderDao</t>
-  </si>
-  <si>
-    <t>prefrenceAreaProductRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.CmsPrefrenceAreaProductRelationMapper</t>
-  </si>
-  <si>
-    <t>memberPriceMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsMemberPriceMapper</t>
-  </si>
-  <si>
-    <t>prefrenceAreaProductRelationDao</t>
+    <t>roleDao</t>
   </si>
   <si>
     <t>roleMenuRelationMapper</t>
@@ -2553,9 +2556,6 @@
     <t>com.macro.mall.mapper.UmsRoleMenuRelationMapper</t>
   </si>
   <si>
-    <t>roleDao</t>
-  </si>
-  <si>
     <t>brandService</t>
   </si>
   <si>
@@ -2571,33 +2571,33 @@
     <t>product</t>
   </si>
   <si>
+    <t>selectType</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>inputList</t>
+  </si>
+  <si>
     <t>relatedStatus</t>
   </si>
   <si>
-    <t>type</t>
+    <t>filterType</t>
   </si>
   <si>
     <t>searchType</t>
   </si>
   <si>
+    <t>productAttributeCategoryId</t>
+  </si>
+  <si>
+    <t>inputType</t>
+  </si>
+  <si>
     <t>handAddStatus</t>
   </si>
   <si>
-    <t>inputType</t>
-  </si>
-  <si>
-    <t>selectType</t>
-  </si>
-  <si>
-    <t>productAttributeCategoryId</t>
-  </si>
-  <si>
-    <t>filterType</t>
-  </si>
-  <si>
-    <t>inputList</t>
-  </si>
-  <si>
     <t>promotionSessionMapper</t>
   </si>
   <si>
@@ -2607,19 +2607,19 @@
     <t>note</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
     <t>nickName</t>
   </si>
   <si>
-    <t>email</t>
+    <t>productAttributeMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductAttributeMapper</t>
   </si>
   <si>
     <t>productAttributeDao</t>
-  </si>
-  <si>
-    <t>productAttributeMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductAttributeMapper</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -43188,7 +43188,7 @@
         <v>50</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>602</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -43196,13 +43196,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>12</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4">
@@ -43210,7 +43210,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>50</v>
@@ -43224,13 +43224,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>535</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -43238,13 +43238,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>30</v>
+        <v>606</v>
       </c>
     </row>
     <row r="7">
@@ -43336,13 +43336,13 @@
         <v>551</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>535</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14">
@@ -43350,13 +43350,13 @@
         <v>551</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>366</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15">
@@ -43370,7 +43370,7 @@
         <v>50</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>615</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16">
@@ -43378,13 +43378,13 @@
         <v>42</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>617</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17">
@@ -43392,13 +43392,13 @@
         <v>42</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>338</v>
+        <v>617</v>
       </c>
     </row>
     <row r="18">
@@ -43406,13 +43406,13 @@
         <v>42</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>386</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19">
@@ -43552,7 +43552,7 @@
         <v>50</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>130</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -43566,7 +43566,7 @@
         <v>50</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -43580,7 +43580,7 @@
         <v>50</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -43630,13 +43630,13 @@
         <v>134</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>637</v>
+        <v>608</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -43644,7 +43644,7 @@
         <v>134</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>50</v>
@@ -43658,7 +43658,7 @@
         <v>134</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>50</v>
@@ -43672,13 +43672,13 @@
         <v>134</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>608</v>
+        <v>639</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -43714,13 +43714,13 @@
         <v>134</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -43728,7 +43728,7 @@
         <v>134</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>50</v>
@@ -43742,13 +43742,13 @@
         <v>134</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43">
@@ -43770,13 +43770,13 @@
         <v>158</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45">
@@ -43784,13 +43784,13 @@
         <v>158</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>646</v>
+        <v>608</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>160</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -43798,13 +43798,13 @@
         <v>158</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47">
@@ -43812,13 +43812,13 @@
         <v>158</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>608</v>
+        <v>646</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>30</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48">
@@ -44084,7 +44084,7 @@
         <v>50</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67">
@@ -44098,7 +44098,7 @@
         <v>50</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
@@ -44112,7 +44112,7 @@
         <v>50</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -44126,7 +44126,7 @@
         <v>50</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70">
@@ -44162,13 +44162,13 @@
         <v>247</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>674</v>
+        <v>632</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73">
@@ -44176,13 +44176,13 @@
         <v>247</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74">
@@ -44190,13 +44190,13 @@
         <v>247</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75">
@@ -44204,7 +44204,7 @@
         <v>247</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>50</v>
@@ -44218,13 +44218,13 @@
         <v>247</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
@@ -44232,7 +44232,7 @@
         <v>247</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>634</v>
+        <v>677</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>50</v>
@@ -44246,7 +44246,7 @@
         <v>247</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>50</v>
@@ -44322,7 +44322,7 @@
         <v>50</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>176</v>
+        <v>683</v>
       </c>
     </row>
     <row r="84">
@@ -44330,13 +44330,13 @@
         <v>263</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>684</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85">
@@ -44470,13 +44470,13 @@
         <v>290</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>697</v>
+        <v>605</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>698</v>
+        <v>606</v>
       </c>
     </row>
     <row r="95">
@@ -44484,13 +44484,13 @@
         <v>290</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="96">
@@ -44498,13 +44498,13 @@
         <v>290</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>601</v>
+        <v>699</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>602</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
@@ -44512,13 +44512,13 @@
         <v>290</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="98">
@@ -44526,13 +44526,13 @@
         <v>290</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>12</v>
+        <v>703</v>
       </c>
     </row>
     <row r="99">
@@ -44560,7 +44560,7 @@
         <v>50</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101">
@@ -44574,7 +44574,7 @@
         <v>50</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>130</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102">
@@ -44588,7 +44588,7 @@
         <v>50</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103">
@@ -44686,7 +44686,7 @@
         <v>50</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>175</v>
+        <v>716</v>
       </c>
     </row>
     <row r="110">
@@ -44694,13 +44694,13 @@
         <v>320</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>717</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111">
@@ -44938,7 +44938,7 @@
         <v>50</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>12</v>
+        <v>274</v>
       </c>
     </row>
     <row r="128">
@@ -44946,7 +44946,7 @@
         <v>375</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>738</v>
+        <v>687</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>50</v>
@@ -44960,13 +44960,13 @@
         <v>375</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>274</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130">
@@ -44974,13 +44974,13 @@
         <v>375</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>19</v>
+        <v>740</v>
       </c>
     </row>
     <row r="131">
@@ -44994,7 +44994,7 @@
         <v>50</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>742</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132">
@@ -45002,7 +45002,7 @@
         <v>375</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>50</v>
@@ -45016,7 +45016,7 @@
         <v>375</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>50</v>
@@ -45030,7 +45030,7 @@
         <v>375</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>688</v>
+        <v>744</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>50</v>
@@ -45162,7 +45162,7 @@
         <v>50</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>755</v>
+        <v>300</v>
       </c>
     </row>
     <row r="144">
@@ -45170,13 +45170,13 @@
         <v>395</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>661</v>
+        <v>755</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>662</v>
+        <v>756</v>
       </c>
     </row>
     <row r="145">
@@ -45184,13 +45184,13 @@
         <v>395</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>756</v>
+        <v>659</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>507</v>
+        <v>660</v>
       </c>
     </row>
     <row r="146">
@@ -45204,7 +45204,7 @@
         <v>50</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>758</v>
+        <v>507</v>
       </c>
     </row>
     <row r="147">
@@ -45212,13 +45212,13 @@
         <v>395</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>300</v>
+        <v>759</v>
       </c>
     </row>
     <row r="148">
@@ -45240,7 +45240,7 @@
         <v>399</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>50</v>
@@ -45254,13 +45254,13 @@
         <v>399</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>761</v>
+        <v>667</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151">
@@ -45268,7 +45268,7 @@
         <v>399</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>762</v>
+        <v>671</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>50</v>
@@ -45282,7 +45282,7 @@
         <v>399</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>50</v>
@@ -45296,13 +45296,13 @@
         <v>399</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="154">
@@ -45310,13 +45310,13 @@
         <v>399</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155">
@@ -45324,7 +45324,7 @@
         <v>399</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>50</v>
@@ -45338,13 +45338,13 @@
         <v>399</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>672</v>
+        <v>765</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157">
@@ -45352,7 +45352,7 @@
         <v>399</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>666</v>
+        <v>766</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>50</v>
@@ -45372,7 +45372,7 @@
         <v>50</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="159">
@@ -45464,7 +45464,7 @@
         <v>421</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>50</v>
@@ -45478,7 +45478,7 @@
         <v>424</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>776</v>
+        <v>635</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>50</v>
@@ -45492,7 +45492,7 @@
         <v>424</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>631</v>
+        <v>776</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>50</v>
@@ -45506,7 +45506,7 @@
         <v>424</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>632</v>
+        <v>777</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>50</v>
@@ -45520,13 +45520,13 @@
         <v>424</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="170">
@@ -45534,7 +45534,7 @@
         <v>424</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>50</v>
@@ -45548,13 +45548,13 @@
         <v>424</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>778</v>
+        <v>636</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172">
@@ -45590,13 +45590,13 @@
         <v>435</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>782</v>
+        <v>739</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>783</v>
+        <v>740</v>
       </c>
     </row>
     <row r="175">
@@ -45604,13 +45604,13 @@
         <v>435</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="176">
@@ -45618,13 +45618,13 @@
         <v>435</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>741</v>
+        <v>784</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>742</v>
+        <v>785</v>
       </c>
     </row>
     <row r="177">
@@ -45638,7 +45638,7 @@
         <v>50</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>302</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178">
@@ -45652,7 +45652,7 @@
         <v>50</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>166</v>
+        <v>788</v>
       </c>
     </row>
     <row r="179">
@@ -45660,13 +45660,13 @@
         <v>435</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>789</v>
+        <v>302</v>
       </c>
     </row>
     <row r="180">
@@ -45842,7 +45842,7 @@
         <v>466</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>50</v>
@@ -45870,7 +45870,7 @@
         <v>381</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>50</v>
@@ -45884,7 +45884,7 @@
         <v>381</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>50</v>
@@ -45912,7 +45912,7 @@
         <v>381</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>50</v>
@@ -46066,13 +46066,13 @@
         <v>588</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D208" t="s" s="0">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="209">
@@ -46170,7 +46170,7 @@
         <v>50</v>
       </c>
       <c r="D215" t="s" s="0">
-        <v>264</v>
+        <v>215</v>
       </c>
     </row>
     <row r="216">
@@ -46192,13 +46192,13 @@
         <v>496</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>661</v>
+        <v>739</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D217" t="s" s="0">
-        <v>662</v>
+        <v>740</v>
       </c>
     </row>
     <row r="218">
@@ -46206,13 +46206,13 @@
         <v>496</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>772</v>
+        <v>824</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D218" t="s" s="0">
-        <v>773</v>
+        <v>301</v>
       </c>
     </row>
     <row r="219">
@@ -46220,13 +46220,13 @@
         <v>496</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D219" t="s" s="0">
-        <v>95</v>
+        <v>826</v>
       </c>
     </row>
     <row r="220">
@@ -46234,13 +46234,13 @@
         <v>496</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>774</v>
+        <v>827</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D220" t="s" s="0">
-        <v>331</v>
+        <v>264</v>
       </c>
     </row>
     <row r="221">
@@ -46248,13 +46248,13 @@
         <v>496</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C221" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D221" t="s" s="0">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="222">
@@ -46262,13 +46262,13 @@
         <v>496</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D222" t="s" s="0">
-        <v>224</v>
+        <v>831</v>
       </c>
     </row>
     <row r="223">
@@ -46276,13 +46276,13 @@
         <v>496</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C223" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D223" t="s" s="0">
-        <v>829</v>
+        <v>268</v>
       </c>
     </row>
     <row r="224">
@@ -46290,13 +46290,13 @@
         <v>496</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D224" t="s" s="0">
-        <v>215</v>
+        <v>96</v>
       </c>
     </row>
     <row r="225">
@@ -46304,13 +46304,13 @@
         <v>496</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>741</v>
+        <v>834</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D225" t="s" s="0">
-        <v>742</v>
+        <v>835</v>
       </c>
     </row>
     <row r="226">
@@ -46318,13 +46318,13 @@
         <v>496</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>831</v>
+        <v>659</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D226" t="s" s="0">
-        <v>832</v>
+        <v>660</v>
       </c>
     </row>
     <row r="227">
@@ -46332,13 +46332,13 @@
         <v>496</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D227" t="s" s="0">
-        <v>268</v>
+        <v>97</v>
       </c>
     </row>
     <row r="228">
@@ -46346,13 +46346,13 @@
         <v>496</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="C228" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D228" t="s" s="0">
-        <v>97</v>
+        <v>224</v>
       </c>
     </row>
     <row r="229">
@@ -46360,13 +46360,13 @@
         <v>496</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D229" t="s" s="0">
-        <v>96</v>
+        <v>839</v>
       </c>
     </row>
     <row r="230">
@@ -46374,13 +46374,13 @@
         <v>496</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>836</v>
+        <v>774</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D230" t="s" s="0">
-        <v>837</v>
+        <v>331</v>
       </c>
     </row>
     <row r="231">
@@ -46388,13 +46388,13 @@
         <v>496</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>838</v>
+        <v>772</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D231" t="s" s="0">
-        <v>839</v>
+        <v>773</v>
       </c>
     </row>
     <row r="232">
@@ -46408,7 +46408,7 @@
         <v>50</v>
       </c>
       <c r="D232" t="s" s="0">
-        <v>301</v>
+        <v>95</v>
       </c>
     </row>
     <row r="233">
@@ -46422,7 +46422,7 @@
         <v>50</v>
       </c>
       <c r="D233" t="s" s="0">
-        <v>842</v>
+        <v>339</v>
       </c>
     </row>
     <row r="234">
@@ -46430,13 +46430,13 @@
         <v>503</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>649</v>
+        <v>702</v>
       </c>
       <c r="C234" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D234" t="s" s="0">
-        <v>431</v>
+        <v>703</v>
       </c>
     </row>
     <row r="235">
@@ -46444,13 +46444,13 @@
         <v>503</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>701</v>
+        <v>649</v>
       </c>
       <c r="C235" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D235" t="s" s="0">
-        <v>702</v>
+        <v>431</v>
       </c>
     </row>
     <row r="236">
@@ -46458,13 +46458,13 @@
         <v>503</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C236" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D236" t="s" s="0">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="237">
@@ -46472,13 +46472,13 @@
         <v>503</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D237" t="s" s="0">
-        <v>339</v>
+        <v>843</v>
       </c>
     </row>
     <row r="238">
@@ -46528,13 +46528,13 @@
         <v>417</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D241" t="s" s="0">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="242">
@@ -46542,13 +46542,13 @@
         <v>417</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C242" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D242" t="s" s="0">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243">
@@ -46570,7 +46570,7 @@
         <v>516</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>669</v>
+        <v>849</v>
       </c>
       <c r="C244" t="s" s="0">
         <v>50</v>
@@ -46584,7 +46584,7 @@
         <v>516</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>50</v>
@@ -46598,13 +46598,13 @@
         <v>516</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D246" t="s" s="0">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="247">
@@ -46612,7 +46612,7 @@
         <v>516</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>50</v>
@@ -46626,7 +46626,7 @@
         <v>516</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>50</v>
@@ -46640,7 +46640,7 @@
         <v>516</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C249" t="s" s="0">
         <v>50</v>
@@ -46654,13 +46654,13 @@
         <v>516</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D250" t="s" s="0">
-        <v>130</v>
+        <v>30</v>
       </c>
     </row>
     <row r="251">
@@ -46668,13 +46668,13 @@
         <v>516</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>855</v>
+        <v>667</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D251" t="s" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252">
@@ -46682,13 +46682,13 @@
         <v>516</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>666</v>
+        <v>856</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D252" t="s" s="0">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="253">
@@ -46696,7 +46696,7 @@
         <v>516</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>856</v>
+        <v>672</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>50</v>
@@ -46716,7 +46716,7 @@
         <v>50</v>
       </c>
       <c r="D254" t="s" s="0">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="255">
@@ -46752,7 +46752,7 @@
         <v>537</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>860</v>
+        <v>680</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>50</v>
@@ -46766,7 +46766,7 @@
         <v>537</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>50</v>
@@ -46780,7 +46780,7 @@
         <v>537</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C259" t="s" s="0">
         <v>50</v>
@@ -46794,7 +46794,7 @@
         <v>537</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>680</v>
+        <v>861</v>
       </c>
       <c r="C260" t="s" s="0">
         <v>50</v>
@@ -46856,7 +46856,7 @@
         <v>50</v>
       </c>
       <c r="D264" t="s" s="0">
-        <v>384</v>
+        <v>864</v>
       </c>
     </row>
     <row r="265">
@@ -46864,13 +46864,13 @@
         <v>544</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C265" t="s" s="0">
         <v>50</v>
       </c>
       <c r="D265" t="s" s="0">
-        <v>865</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -56439,7 +56439,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -56460,6 +56460,23 @@
       </c>
       <c r="E1" t="s" s="0">
         <v>870</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>885</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>871</v>
       </c>
     </row>
   </sheetData>
@@ -56503,7 +56520,7 @@
         <v>492</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>871</v>
@@ -56520,7 +56537,7 @@
         <v>492</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>871</v>
@@ -56537,7 +56554,7 @@
         <v>492</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>871</v>
@@ -56554,7 +56571,7 @@
         <v>492</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>871</v>
@@ -56571,7 +56588,7 @@
         <v>492</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>871</v>
@@ -56588,7 +56605,7 @@
         <v>492</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>871</v>
@@ -56605,7 +56622,7 @@
         <v>492</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>871</v>
@@ -56622,7 +56639,7 @@
         <v>492</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>871</v>
@@ -56639,7 +56656,7 @@
         <v>492</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>871</v>
@@ -56656,7 +56673,7 @@
         <v>492</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>871</v>
@@ -56673,7 +56690,7 @@
         <v>492</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>871</v>
@@ -56690,7 +56707,7 @@
         <v>492</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>871</v>
@@ -56707,7 +56724,7 @@
         <v>492</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>871</v>
@@ -56724,7 +56741,7 @@
         <v>492</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>871</v>

--- a/data/mall-swarm/mall-admin_structure.xlsx
+++ b/data/mall-swarm/mall-admin_structure.xlsx
@@ -2790,9 +2790,6 @@
     <t>com.macro.mall.config.RedisConfig</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>75</t>
   </si>
   <si>
@@ -2844,7 +2841,7 @@
     <t>23</t>
   </si>
   <si>
-    <t>170</t>
+    <t>218</t>
   </si>
   <si>
     <t>67</t>
@@ -3160,6 +3157,9 @@
   </si>
   <si>
     <t>OmsOrderReturnApplyController()</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>PmsProductServiceImpl()</t>
@@ -30916,7 +30916,7 @@
         <v>921</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="74">
@@ -30948,7 +30948,7 @@
         <v>320</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="78">
@@ -31004,7 +31004,7 @@
         <v>569</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="85">
@@ -31012,7 +31012,7 @@
         <v>329</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="86">
@@ -31084,7 +31084,7 @@
         <v>343</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="95">
@@ -31108,7 +31108,7 @@
         <v>365</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="98">
@@ -31124,7 +31124,7 @@
         <v>580</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="100">
@@ -31148,7 +31148,7 @@
         <v>375</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="103">
@@ -31204,7 +31204,7 @@
         <v>394</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="110">
@@ -31212,7 +31212,7 @@
         <v>395</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="111">
@@ -31228,7 +31228,7 @@
         <v>583</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="113">
@@ -31236,7 +31236,7 @@
         <v>399</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="114">
@@ -31252,7 +31252,7 @@
         <v>415</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="116">
@@ -31260,7 +31260,7 @@
         <v>419</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="117">
@@ -31308,7 +31308,7 @@
         <v>435</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="123">
@@ -31340,7 +31340,7 @@
         <v>584</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="127">
@@ -31396,7 +31396,7 @@
         <v>381</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="134">
@@ -31420,7 +31420,7 @@
         <v>491</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="137">
@@ -31428,7 +31428,7 @@
         <v>492</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="138">
@@ -31436,7 +31436,7 @@
         <v>587</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="139">
@@ -31444,7 +31444,7 @@
         <v>588</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="140">
@@ -31460,7 +31460,7 @@
         <v>495</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="142">
@@ -31468,7 +31468,7 @@
         <v>591</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="143">
@@ -31476,7 +31476,7 @@
         <v>496</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="144">
@@ -31484,7 +31484,7 @@
         <v>503</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="145">
@@ -31492,7 +31492,7 @@
         <v>592</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="146">
@@ -31532,7 +31532,7 @@
         <v>417</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="151">
@@ -31548,7 +31548,7 @@
         <v>516</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="153">
@@ -31653,10 +31653,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="6">
@@ -31730,10 +31730,10 @@
         <v>28</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="13">
@@ -31796,10 +31796,10 @@
         <v>549</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="19">
@@ -31917,10 +31917,10 @@
         <v>550</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="30">
@@ -31939,10 +31939,10 @@
         <v>36</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="32">
@@ -31975,7 +31975,7 @@
         <v>552</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="35">
@@ -32030,7 +32030,7 @@
         <v>437</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="40">
@@ -32093,10 +32093,10 @@
         <v>551</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="46">
@@ -32151,7 +32151,7 @@
         <v>46</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="51">
@@ -32195,7 +32195,7 @@
         <v>48</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="55">
@@ -32206,7 +32206,7 @@
         <v>47</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="56">
@@ -32217,7 +32217,7 @@
         <v>52</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="57">
@@ -32228,7 +32228,7 @@
         <v>49</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="58">
@@ -32236,10 +32236,10 @@
         <v>42</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="59">
@@ -32536,7 +32536,7 @@
         <v>80</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="86">
@@ -32547,7 +32547,7 @@
         <v>82</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="87">
@@ -32558,7 +32558,7 @@
         <v>79</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="88">
@@ -32569,7 +32569,7 @@
         <v>81</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="89">
@@ -32577,10 +32577,10 @@
         <v>75</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="90">
@@ -32632,10 +32632,10 @@
         <v>44</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="95">
@@ -32701,7 +32701,7 @@
         <v>5</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="101">
@@ -32731,10 +32731,10 @@
         <v>87</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="104">
@@ -32808,10 +32808,10 @@
         <v>555</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="111">
@@ -32852,10 +32852,10 @@
         <v>557</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="115">
@@ -32995,10 +32995,10 @@
         <v>108</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="128">
@@ -33182,10 +33182,10 @@
         <v>558</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="145">
@@ -33325,10 +33325,10 @@
         <v>120</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="158">
@@ -33534,10 +33534,10 @@
         <v>134</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="177">
@@ -33567,10 +33567,10 @@
         <v>149</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="180">
@@ -33732,10 +33732,10 @@
         <v>158</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="195">
@@ -33754,10 +33754,10 @@
         <v>164</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="197">
@@ -33842,10 +33842,10 @@
         <v>559</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C204" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="205">
@@ -33919,10 +33919,10 @@
         <v>170</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="212">
@@ -33985,10 +33985,10 @@
         <v>560</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="218">
@@ -34051,10 +34051,10 @@
         <v>561</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="224">
@@ -34208,7 +34208,7 @@
         <v>5</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="238">
@@ -34230,7 +34230,7 @@
         <v>18</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="240">
@@ -34238,10 +34238,10 @@
         <v>100</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C240" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="241">
@@ -34293,10 +34293,10 @@
         <v>188</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C245" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="246">
@@ -34656,10 +34656,10 @@
         <v>216</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C278" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="279">
@@ -34747,7 +34747,7 @@
         <v>5</v>
       </c>
       <c r="C286" t="s" s="0">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="287">
@@ -34769,7 +34769,7 @@
         <v>18</v>
       </c>
       <c r="C288" t="s" s="0">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="289">
@@ -34777,10 +34777,10 @@
         <v>217</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C289" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="290">
@@ -34989,7 +34989,7 @@
         <v>5</v>
       </c>
       <c r="C308" t="s" s="0">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="309">
@@ -35019,10 +35019,10 @@
         <v>225</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C311" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="312">
@@ -35272,10 +35272,10 @@
         <v>247</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C334" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="335">
@@ -35349,10 +35349,10 @@
         <v>562</v>
       </c>
       <c r="B341" t="s" s="0">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C341" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="342">
@@ -35418,7 +35418,7 @@
         <v>5</v>
       </c>
       <c r="C347" t="s" s="0">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="348">
@@ -35448,10 +35448,10 @@
         <v>258</v>
       </c>
       <c r="B350" t="s" s="0">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C350" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="351">
@@ -35525,10 +35525,10 @@
         <v>263</v>
       </c>
       <c r="B357" t="s" s="0">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C357" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="358">
@@ -35569,10 +35569,10 @@
         <v>265</v>
       </c>
       <c r="B361" t="s" s="0">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C361" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="362">
@@ -35635,10 +35635,10 @@
         <v>563</v>
       </c>
       <c r="B367" t="s" s="0">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C367" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="368">
@@ -35657,10 +35657,10 @@
         <v>272</v>
       </c>
       <c r="B369" t="s" s="0">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C369" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="370">
@@ -35734,10 +35734,10 @@
         <v>275</v>
       </c>
       <c r="B376" t="s" s="0">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C376" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="377">
@@ -35792,7 +35792,7 @@
         <v>104</v>
       </c>
       <c r="C381" t="s" s="0">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="382">
@@ -35800,10 +35800,10 @@
         <v>276</v>
       </c>
       <c r="B382" t="s" s="0">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C382" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="383">
@@ -35965,10 +35965,10 @@
         <v>289</v>
       </c>
       <c r="B397" t="s" s="0">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C397" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="398">
@@ -36023,7 +36023,7 @@
         <v>294</v>
       </c>
       <c r="C402" t="s" s="0">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="403">
@@ -36056,7 +36056,7 @@
         <v>297</v>
       </c>
       <c r="C405" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="406">
@@ -36067,7 +36067,7 @@
         <v>295</v>
       </c>
       <c r="C406" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="407">
@@ -36078,7 +36078,7 @@
         <v>291</v>
       </c>
       <c r="C407" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="408">
@@ -36086,10 +36086,10 @@
         <v>290</v>
       </c>
       <c r="B408" t="s" s="0">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C408" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="409">
@@ -36174,10 +36174,10 @@
         <v>564</v>
       </c>
       <c r="B416" t="s" s="0">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C416" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="417">
@@ -36441,7 +36441,7 @@
         <v>5</v>
       </c>
       <c r="C440" t="s" s="0">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="441">
@@ -36471,10 +36471,10 @@
         <v>306</v>
       </c>
       <c r="B443" t="s" s="0">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C443" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="444">
@@ -36482,10 +36482,10 @@
         <v>921</v>
       </c>
       <c r="B444" t="s" s="0">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C444" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="445">
@@ -36515,10 +36515,10 @@
         <v>566</v>
       </c>
       <c r="B447" t="s" s="0">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C447" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="448">
@@ -36592,10 +36592,10 @@
         <v>567</v>
       </c>
       <c r="B454" t="s" s="0">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C454" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="455">
@@ -36606,7 +36606,7 @@
         <v>324</v>
       </c>
       <c r="C455" t="s" s="0">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="456">
@@ -36650,7 +36650,7 @@
         <v>322</v>
       </c>
       <c r="C459" t="s" s="0">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="460">
@@ -36661,7 +36661,7 @@
         <v>104</v>
       </c>
       <c r="C460" t="s" s="0">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="461">
@@ -36680,10 +36680,10 @@
         <v>320</v>
       </c>
       <c r="B462" t="s" s="0">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C462" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="463">
@@ -36724,10 +36724,10 @@
         <v>77</v>
       </c>
       <c r="B466" t="s" s="0">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C466" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="467">
@@ -36746,10 +36746,10 @@
         <v>326</v>
       </c>
       <c r="B468" t="s" s="0">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C468" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="469">
@@ -36812,10 +36812,10 @@
         <v>568</v>
       </c>
       <c r="B474" t="s" s="0">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C474" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="475">
@@ -36966,10 +36966,10 @@
         <v>569</v>
       </c>
       <c r="B488" t="s" s="0">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C488" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="489">
@@ -36980,7 +36980,7 @@
         <v>330</v>
       </c>
       <c r="C489" t="s" s="0">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="490">
@@ -36988,10 +36988,10 @@
         <v>329</v>
       </c>
       <c r="B490" t="s" s="0">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C490" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="491">
@@ -37021,10 +37021,10 @@
         <v>570</v>
       </c>
       <c r="B493" t="s" s="0">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C493" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="494">
@@ -37142,10 +37142,10 @@
         <v>572</v>
       </c>
       <c r="B504" t="s" s="0">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C504" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="505">
@@ -37351,10 +37351,10 @@
         <v>575</v>
       </c>
       <c r="B523" t="s" s="0">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C523" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="524">
@@ -37428,10 +37428,10 @@
         <v>577</v>
       </c>
       <c r="B530" t="s" s="0">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C530" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="531">
@@ -37439,10 +37439,10 @@
         <v>343</v>
       </c>
       <c r="B531" t="s" s="0">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C531" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="532">
@@ -37472,10 +37472,10 @@
         <v>270</v>
       </c>
       <c r="B534" t="s" s="0">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C534" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="535">
@@ -37497,7 +37497,7 @@
         <v>364</v>
       </c>
       <c r="C536" t="s" s="0">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="537">
@@ -37508,7 +37508,7 @@
         <v>361</v>
       </c>
       <c r="C537" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="538">
@@ -37519,7 +37519,7 @@
         <v>362</v>
       </c>
       <c r="C538" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="539">
@@ -37527,10 +37527,10 @@
         <v>360</v>
       </c>
       <c r="B539" t="s" s="0">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C539" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="540">
@@ -37604,10 +37604,10 @@
         <v>365</v>
       </c>
       <c r="B546" t="s" s="0">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C546" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="547">
@@ -37813,10 +37813,10 @@
         <v>580</v>
       </c>
       <c r="B565" t="s" s="0">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C565" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="566">
@@ -37904,7 +37904,7 @@
         <v>99</v>
       </c>
       <c r="C573" t="s" s="0">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="574">
@@ -37912,10 +37912,10 @@
         <v>375</v>
       </c>
       <c r="B574" t="s" s="0">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C574" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="575">
@@ -37970,7 +37970,7 @@
         <v>104</v>
       </c>
       <c r="C579" t="s" s="0">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="580">
@@ -37978,10 +37978,10 @@
         <v>376</v>
       </c>
       <c r="B580" t="s" s="0">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C580" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="581">
@@ -38000,10 +38000,10 @@
         <v>582</v>
       </c>
       <c r="B582" t="s" s="0">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C582" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="583">
@@ -38077,10 +38077,10 @@
         <v>377</v>
       </c>
       <c r="B589" t="s" s="0">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C589" t="s" s="0">
-        <v>922</v>
+        <v>872</v>
       </c>
     </row>
     <row r="590">
@@ -38223,7 +38223,7 @@
         <v>66</v>
       </c>
       <c r="C602" t="s" s="0">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="603">
@@ -38242,10 +38242,10 @@
         <v>394</v>
       </c>
       <c r="B604" t="s" s="0">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C604" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="605">
@@ -38256,7 +38256,7 @@
         <v>116</v>
       </c>
       <c r="C605" t="s" s="0">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="606">
@@ -38278,7 +38278,7 @@
         <v>117</v>
       </c>
       <c r="C607" t="s" s="0">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="608">
@@ -38363,10 +38363,10 @@
         <v>395</v>
       </c>
       <c r="B615" t="s" s="0">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C615" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="616">
@@ -38451,10 +38451,10 @@
         <v>583</v>
       </c>
       <c r="B623" t="s" s="0">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C623" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="624">
@@ -38696,7 +38696,7 @@
         <v>5</v>
       </c>
       <c r="C645" t="s" s="0">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="646">
@@ -38718,7 +38718,7 @@
         <v>18</v>
       </c>
       <c r="C647" t="s" s="0">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="648">
@@ -38726,10 +38726,10 @@
         <v>399</v>
       </c>
       <c r="B648" t="s" s="0">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C648" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="649">
@@ -38784,7 +38784,7 @@
         <v>104</v>
       </c>
       <c r="C653" t="s" s="0">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="654">
@@ -38792,10 +38792,10 @@
         <v>414</v>
       </c>
       <c r="B654" t="s" s="0">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C654" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="655">
@@ -38847,7 +38847,7 @@
         <v>415</v>
       </c>
       <c r="B659" t="s" s="0">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C659" t="s" s="0">
         <v>872</v>
@@ -38880,10 +38880,10 @@
         <v>419</v>
       </c>
       <c r="B662" t="s" s="0">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C662" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="663">
@@ -38960,7 +38960,7 @@
         <v>5</v>
       </c>
       <c r="C669" t="s" s="0">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="670">
@@ -38990,10 +38990,10 @@
         <v>421</v>
       </c>
       <c r="B672" t="s" s="0">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C672" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="673">
@@ -39133,10 +39133,10 @@
         <v>424</v>
       </c>
       <c r="B685" t="s" s="0">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C685" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="686">
@@ -39243,10 +39243,10 @@
         <v>432</v>
       </c>
       <c r="B695" t="s" s="0">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C695" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="696">
@@ -39268,7 +39268,7 @@
         <v>436</v>
       </c>
       <c r="C697" t="s" s="0">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="698">
@@ -39279,7 +39279,7 @@
         <v>441</v>
       </c>
       <c r="C698" t="s" s="0">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="699">
@@ -39290,7 +39290,7 @@
         <v>444</v>
       </c>
       <c r="C699" t="s" s="0">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="700">
@@ -39334,7 +39334,7 @@
         <v>440</v>
       </c>
       <c r="C703" t="s" s="0">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="704">
@@ -39389,7 +39389,7 @@
         <v>437</v>
       </c>
       <c r="C708" t="s" s="0">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="709">
@@ -39433,7 +39433,7 @@
         <v>439</v>
       </c>
       <c r="C712" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="713">
@@ -39441,10 +39441,10 @@
         <v>435</v>
       </c>
       <c r="B713" t="s" s="0">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C713" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="714">
@@ -39485,10 +39485,10 @@
         <v>68</v>
       </c>
       <c r="B717" t="s" s="0">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C717" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="718">
@@ -39507,10 +39507,10 @@
         <v>453</v>
       </c>
       <c r="B719" t="s" s="0">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C719" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="720">
@@ -39540,10 +39540,10 @@
         <v>584</v>
       </c>
       <c r="B722" t="s" s="0">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C722" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="723">
@@ -39573,10 +39573,10 @@
         <v>585</v>
       </c>
       <c r="B725" t="s" s="0">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C725" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="726">
@@ -39730,7 +39730,7 @@
         <v>5</v>
       </c>
       <c r="C739" t="s" s="0">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="740">
@@ -39760,10 +39760,10 @@
         <v>102</v>
       </c>
       <c r="B742" t="s" s="0">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C742" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="743">
@@ -39837,10 +39837,10 @@
         <v>466</v>
       </c>
       <c r="B749" t="s" s="0">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C749" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="750">
@@ -39980,10 +39980,10 @@
         <v>586</v>
       </c>
       <c r="B762" t="s" s="0">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C762" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="763">
@@ -40126,7 +40126,7 @@
         <v>18</v>
       </c>
       <c r="C775" t="s" s="0">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="776">
@@ -40134,7 +40134,7 @@
         <v>381</v>
       </c>
       <c r="B776" t="s" s="0">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C776" t="s" s="0">
         <v>879</v>
@@ -40214,7 +40214,7 @@
         <v>104</v>
       </c>
       <c r="C783" t="s" s="0">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="784">
@@ -40222,10 +40222,10 @@
         <v>490</v>
       </c>
       <c r="B784" t="s" s="0">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C784" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="785">
@@ -40255,10 +40255,10 @@
         <v>491</v>
       </c>
       <c r="B787" t="s" s="0">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C787" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="788">
@@ -40434,7 +40434,7 @@
         <v>5</v>
       </c>
       <c r="C803" t="s" s="0">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="804">
@@ -40456,7 +40456,7 @@
         <v>18</v>
       </c>
       <c r="C805" t="s" s="0">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="806">
@@ -40464,10 +40464,10 @@
         <v>492</v>
       </c>
       <c r="B806" t="s" s="0">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C806" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="807">
@@ -40552,10 +40552,10 @@
         <v>587</v>
       </c>
       <c r="B814" t="s" s="0">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C814" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="815">
@@ -40588,7 +40588,7 @@
         <v>590</v>
       </c>
       <c r="C817" t="s" s="0">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="818">
@@ -40596,10 +40596,10 @@
         <v>588</v>
       </c>
       <c r="B818" t="s" s="0">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C818" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="819">
@@ -40687,7 +40687,7 @@
         <v>334</v>
       </c>
       <c r="C826" t="s" s="0">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="827">
@@ -40695,10 +40695,10 @@
         <v>495</v>
       </c>
       <c r="B827" t="s" s="0">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C827" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="828">
@@ -40750,10 +40750,10 @@
         <v>591</v>
       </c>
       <c r="B832" t="s" s="0">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C832" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="833">
@@ -40764,7 +40764,7 @@
         <v>280</v>
       </c>
       <c r="C833" t="s" s="0">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="834">
@@ -40775,7 +40775,7 @@
         <v>500</v>
       </c>
       <c r="C834" t="s" s="0">
-        <v>1043</v>
+        <v>924</v>
       </c>
     </row>
     <row r="835">
@@ -40786,7 +40786,7 @@
         <v>269</v>
       </c>
       <c r="C835" t="s" s="0">
-        <v>922</v>
+        <v>914</v>
       </c>
     </row>
     <row r="836">
@@ -40797,7 +40797,7 @@
         <v>278</v>
       </c>
       <c r="C836" t="s" s="0">
-        <v>922</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="837">
@@ -40808,7 +40808,7 @@
         <v>499</v>
       </c>
       <c r="C837" t="s" s="0">
-        <v>922</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="838">
@@ -40819,7 +40819,7 @@
         <v>281</v>
       </c>
       <c r="C838" t="s" s="0">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="839">
@@ -40830,7 +40830,7 @@
         <v>283</v>
       </c>
       <c r="C839" t="s" s="0">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="840">
@@ -40896,7 +40896,7 @@
         <v>497</v>
       </c>
       <c r="C845" t="s" s="0">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="846">
@@ -40907,7 +40907,7 @@
         <v>501</v>
       </c>
       <c r="C846" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="847">
@@ -40918,7 +40918,7 @@
         <v>498</v>
       </c>
       <c r="C847" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="848">
@@ -40929,7 +40929,7 @@
         <v>502</v>
       </c>
       <c r="C848" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="849">
@@ -40940,7 +40940,7 @@
         <v>1046</v>
       </c>
       <c r="C849" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="850">
@@ -41039,7 +41039,7 @@
         <v>369</v>
       </c>
       <c r="C858" t="s" s="0">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="859">
@@ -41050,7 +41050,7 @@
         <v>368</v>
       </c>
       <c r="C859" t="s" s="0">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="860">
@@ -41061,7 +41061,7 @@
         <v>1047</v>
       </c>
       <c r="C860" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="861">
@@ -41083,7 +41083,7 @@
         <v>594</v>
       </c>
       <c r="C862" t="s" s="0">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="863">
@@ -41094,7 +41094,7 @@
         <v>595</v>
       </c>
       <c r="C863" t="s" s="0">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="864">
@@ -41171,7 +41171,7 @@
         <v>1048</v>
       </c>
       <c r="C870" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="871">
@@ -41237,7 +41237,7 @@
         <v>1049</v>
       </c>
       <c r="C876" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="877">
@@ -41259,7 +41259,7 @@
         <v>1050</v>
       </c>
       <c r="C878" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="879">
@@ -41336,7 +41336,7 @@
         <v>1051</v>
       </c>
       <c r="C885" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="886">
@@ -41424,7 +41424,7 @@
         <v>5</v>
       </c>
       <c r="C893" t="s" s="0">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="894">
@@ -41490,7 +41490,7 @@
         <v>1053</v>
       </c>
       <c r="C899" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="900">
@@ -41787,7 +41787,7 @@
         <v>1054</v>
       </c>
       <c r="C926" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="927">
@@ -42029,7 +42029,7 @@
         <v>1055</v>
       </c>
       <c r="C948" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="949">
@@ -42172,7 +42172,7 @@
         <v>1056</v>
       </c>
       <c r="C961" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="962">
@@ -42249,7 +42249,7 @@
         <v>1057</v>
       </c>
       <c r="C968" t="s" s="0">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="969">

--- a/data/mall-swarm/mall-admin_structure.xlsx
+++ b/data/mall-swarm/mall-admin_structure.xlsx
@@ -2136,22 +2136,25 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>REDIS_DATABASE</t>
+  </si>
+  <si>
+    <t>adminService</t>
+  </si>
+  <si>
     <t>redisService</t>
   </si>
   <si>
     <t>com.macro.mall.common.service.RedisService</t>
   </si>
   <si>
-    <t>REDIS_DATABASE</t>
+    <t>REDIS_KEY_ADMIN</t>
   </si>
   <si>
     <t>REDIS_EXPIRE</t>
   </si>
   <si>
-    <t>REDIS_KEY_ADMIN</t>
-  </si>
-  <si>
-    <t>adminService</t>
+    <t>orderId</t>
   </si>
   <si>
     <t>deliverySn</t>
@@ -2160,9 +2163,6 @@
     <t>deliveryCompany</t>
   </si>
   <si>
-    <t>orderId</t>
-  </si>
-  <si>
     <t>homeNewProductService</t>
   </si>
   <si>
@@ -2175,6 +2175,15 @@
     <t>com.macro.mall.mapper.OmsCompanyAddressMapper</t>
   </si>
   <si>
+    <t>orderMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.OmsOrderMapper</t>
+  </si>
+  <si>
+    <t>orderDao</t>
+  </si>
+  <si>
     <t>orderOperateHistoryMapper</t>
   </si>
   <si>
@@ -2184,27 +2193,18 @@
     <t>orderOperateHistoryDao</t>
   </si>
   <si>
-    <t>orderDao</t>
-  </si>
-  <si>
-    <t>orderMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.OmsOrderMapper</t>
-  </si>
-  <si>
     <t>menuMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.UmsMenuMapper</t>
   </si>
   <si>
+    <t>orderItemList</t>
+  </si>
+  <si>
     <t>historyList</t>
   </si>
   <si>
-    <t>orderItemList</t>
-  </si>
-  <si>
     <t>attributeId</t>
   </si>
   <si>
@@ -2226,45 +2226,45 @@
     <t>productCategoryService</t>
   </si>
   <si>
+    <t>handleTime</t>
+  </si>
+  <si>
+    <t>handleMan</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>createTime</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>createTime</t>
-  </si>
-  <si>
     <t>receiverKeyword</t>
   </si>
   <si>
-    <t>handleTime</t>
-  </si>
-  <si>
-    <t>handleMan</t>
-  </si>
-  <si>
-    <t>status</t>
+    <t>receiverName</t>
+  </si>
+  <si>
+    <t>receiverDetailAddress</t>
+  </si>
+  <si>
+    <t>receiverCity</t>
   </si>
   <si>
     <t>receiverPhone</t>
   </si>
   <si>
+    <t>receiverRegion</t>
+  </si>
+  <si>
     <t>receiverProvince</t>
   </si>
   <si>
     <t>receiverPostCode</t>
   </si>
   <si>
-    <t>receiverName</t>
-  </si>
-  <si>
-    <t>receiverDetailAddress</t>
-  </si>
-  <si>
-    <t>receiverCity</t>
-  </si>
-  <si>
-    <t>receiverRegion</t>
-  </si>
-  <si>
     <t>children</t>
   </si>
   <si>
@@ -2289,27 +2289,27 @@
     <t>homeBrandService</t>
   </si>
   <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
     <t>mimeType</t>
   </si>
   <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
+    <t>productRelationList</t>
+  </si>
+  <si>
     <t>productCategoryRelationList</t>
   </si>
   <si>
-    <t>productRelationList</t>
-  </si>
-  <si>
     <t>productMapper</t>
   </si>
   <si>
@@ -2331,63 +2331,63 @@
     <t>callbackBody</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>showStatus</t>
+  </si>
+  <si>
+    <t>factoryStatus</t>
+  </si>
+  <si>
+    <t>brandStory</t>
+  </si>
+  <si>
     <t>firstLetter</t>
   </si>
   <si>
+    <t>bigPic</t>
+  </si>
+  <si>
     <t>sort</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>brandStory</t>
-  </si>
-  <si>
-    <t>bigPic</t>
-  </si>
-  <si>
-    <t>factoryStatus</t>
-  </si>
-  <si>
     <t>logo</t>
   </si>
   <si>
-    <t>showStatus</t>
+    <t>returnAmount</t>
+  </si>
+  <si>
+    <t>handleNote</t>
+  </si>
+  <si>
+    <t>receiveMan</t>
+  </si>
+  <si>
+    <t>receiveNote</t>
   </si>
   <si>
     <t>companyAddressId</t>
   </si>
   <si>
-    <t>returnAmount</t>
-  </si>
-  <si>
-    <t>handleNote</t>
-  </si>
-  <si>
-    <t>receiveNote</t>
-  </si>
-  <si>
-    <t>receiveMan</t>
-  </si>
-  <si>
     <t>advertiseService</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
-    <t>username</t>
+    <t>relationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsFlashPromotionProductRelationMapper</t>
   </si>
   <si>
     <t>relationDao</t>
   </si>
   <si>
-    <t>relationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsFlashPromotionProductRelationMapper</t>
-  </si>
-  <si>
     <t>productCount</t>
   </si>
   <si>
@@ -2397,12 +2397,12 @@
     <t>ALIYUN_OSS_ACCESSKEYSECRET</t>
   </si>
   <si>
+    <t>ALIYUN_OSS_ACCESSKEYID</t>
+  </si>
+  <si>
     <t>ALIYUN_OSS_ENDPOINT</t>
   </si>
   <si>
-    <t>ALIYUN_OSS_ACCESSKEYID</t>
-  </si>
-  <si>
     <t>productAttributeCategoryDao</t>
   </si>
   <si>
@@ -2424,81 +2424,81 @@
     <t>com.macro.mall.mapper.OmsOrderSettingMapper</t>
   </si>
   <si>
+    <t>roleMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsRoleMapper</t>
+  </si>
+  <si>
+    <t>resourceMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsResourceMapper</t>
+  </si>
+  <si>
+    <t>applicationName</t>
+  </si>
+  <si>
     <t>roleResourceRelationMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.UmsRoleResourceRelationMapper</t>
   </si>
   <si>
-    <t>resourceMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsResourceMapper</t>
-  </si>
-  <si>
-    <t>applicationName</t>
-  </si>
-  <si>
-    <t>roleMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsRoleMapper</t>
-  </si>
-  <si>
     <t>productAttributeService</t>
   </si>
   <si>
+    <t>publishStatus</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>verifyStatus</t>
+  </si>
+  <si>
+    <t>productSn</t>
+  </si>
+  <si>
+    <t>productCategoryId</t>
+  </si>
+  <si>
     <t>brandId</t>
   </si>
   <si>
-    <t>productSn</t>
-  </si>
-  <si>
-    <t>verifyStatus</t>
-  </si>
-  <si>
-    <t>keyword</t>
-  </si>
-  <si>
-    <t>publishStatus</t>
-  </si>
-  <si>
-    <t>productCategoryId</t>
-  </si>
-  <si>
     <t>memberLevelService</t>
   </si>
   <si>
     <t>productAttributeCategoryService</t>
   </si>
   <si>
+    <t>productRelationDao</t>
+  </si>
+  <si>
+    <t>couponMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsCouponMapper</t>
+  </si>
+  <si>
+    <t>productRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsCouponProductRelationMapper</t>
+  </si>
+  <si>
     <t>productCategoryRelationMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.SmsCouponProductCategoryRelationMapper</t>
   </si>
   <si>
-    <t>couponMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsCouponMapper</t>
-  </si>
-  <si>
     <t>productCategoryRelationDao</t>
   </si>
   <si>
     <t>couponDao</t>
   </si>
   <si>
-    <t>productRelationDao</t>
-  </si>
-  <si>
-    <t>productRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsCouponProductRelationMapper</t>
-  </si>
-  <si>
     <t>prefrenceAreaMapper</t>
   </si>
   <si>
@@ -2544,45 +2544,45 @@
     <t>orderService</t>
   </si>
   <si>
+    <t>ALIYUN_OSS_DIR_PREFIX</t>
+  </si>
+  <si>
+    <t>ossClient</t>
+  </si>
+  <si>
+    <t>ALIYUN_OSS_BUCKET_NAME</t>
+  </si>
+  <si>
+    <t>LOGGER</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
+    <t>ALIYUN_OSS_EXPIRE</t>
+  </si>
+  <si>
     <t>ALIYUN_OSS_CALLBACK</t>
   </si>
   <si>
-    <t>ALIYUN_OSS_BUCKET_NAME</t>
-  </si>
-  <si>
     <t>ALIYUN_OSS_MAX_SIZE</t>
   </si>
   <si>
-    <t>ALIYUN_OSS_DIR_PREFIX</t>
-  </si>
-  <si>
-    <t>ALIYUN_OSS_EXPIRE</t>
-  </si>
-  <si>
-    <t>LOGGER</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
-    <t>ossClient</t>
-  </si>
-  <si>
     <t>com.macro.mall.mapper.SmsHomeRecommendSubjectMapper</t>
   </si>
   <si>
     <t>prefrenceAreaService</t>
   </si>
   <si>
+    <t>Action</t>
+  </si>
+  <si>
     <t>Effect</t>
   </si>
   <si>
     <t>Principal</t>
   </si>
   <si>
-    <t>Action</t>
-  </si>
-  <si>
     <t>Resource</t>
   </si>
   <si>
@@ -2595,58 +2595,61 @@
     <t>com.macro.mall.mapper.OmsOrderReturnApplyMapper</t>
   </si>
   <si>
+    <t>productCategoryAttributeRelationDao</t>
+  </si>
+  <si>
     <t>productCategoryMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.PmsProductCategoryMapper</t>
   </si>
   <si>
+    <t>productCategoryAttributeRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductCategoryAttributeRelationMapper</t>
+  </si>
+  <si>
     <t>productCategoryDao</t>
   </si>
   <si>
-    <t>productCategoryAttributeRelationDao</t>
-  </si>
-  <si>
-    <t>productCategoryAttributeRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductCategoryAttributeRelationMapper</t>
-  </si>
-  <si>
     <t>orderSettingService</t>
   </si>
   <si>
+    <t>productUnit</t>
+  </si>
+  <si>
+    <t>parentId</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>navStatus</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
     <t>productAttributeIdList</t>
   </si>
   <si>
-    <t>navStatus</t>
-  </si>
-  <si>
-    <t>parentId</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>productUnit</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
     <t>homeBrandMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.SmsHomeBrandMapper</t>
   </si>
   <si>
+    <t>Version</t>
+  </si>
+  <si>
     <t>Statement</t>
   </si>
   <si>
-    <t>Version</t>
+    <t>skuStockDao</t>
   </si>
   <si>
     <t>skuStockMapper</t>
@@ -2655,9 +2658,6 @@
     <t>com.macro.mall.mapper.PmsSkuStockMapper</t>
   </si>
   <si>
-    <t>skuStockDao</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
@@ -2688,21 +2688,21 @@
     <t>authService</t>
   </si>
   <si>
+    <t>adminMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsAdminMapper</t>
+  </si>
+  <si>
+    <t>adminRoleRelationDao</t>
+  </si>
+  <si>
     <t>adminRoleRelationMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.UmsAdminRoleRelationMapper</t>
   </si>
   <si>
-    <t>adminMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsAdminMapper</t>
-  </si>
-  <si>
-    <t>adminRoleRelationDao</t>
-  </si>
-  <si>
     <t>companyAddress</t>
   </si>
   <si>
@@ -2712,18 +2712,18 @@
     <t>ossService</t>
   </si>
   <si>
+    <t>dir</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
     <t>host</t>
   </si>
   <si>
-    <t>policy</t>
-  </si>
-  <si>
     <t>callback</t>
   </si>
   <si>
-    <t>dir</t>
-  </si>
-  <si>
     <t>signature</t>
   </si>
   <si>
@@ -2751,36 +2751,36 @@
     <t>com.macro.mall.mapper.CmsSubjectMapper</t>
   </si>
   <si>
+    <t>productFullReductionList</t>
+  </si>
+  <si>
     <t>memberPriceList</t>
   </si>
   <si>
+    <t>productAttributeValueList</t>
+  </si>
+  <si>
+    <t>subjectProductRelationList</t>
+  </si>
+  <si>
+    <t>prefrenceAreaProductRelationList</t>
+  </si>
+  <si>
+    <t>productLadderList</t>
+  </si>
+  <si>
     <t>skuStockList</t>
   </si>
   <si>
-    <t>productLadderList</t>
-  </si>
-  <si>
-    <t>productFullReductionList</t>
-  </si>
-  <si>
-    <t>subjectProductRelationList</t>
-  </si>
-  <si>
-    <t>prefrenceAreaProductRelationList</t>
-  </si>
-  <si>
-    <t>productAttributeValueList</t>
-  </si>
-  <si>
     <t>flashPromotionSessionService</t>
   </si>
   <si>
+    <t>SECRET_KEY</t>
+  </si>
+  <si>
     <t>ENDPOINT</t>
   </si>
   <si>
-    <t>SECRET_KEY</t>
-  </si>
-  <si>
     <t>BUCKET_NAME</t>
   </si>
   <si>
@@ -2799,72 +2799,72 @@
     <t>productLadderDao</t>
   </si>
   <si>
+    <t>productAttributeValueDao</t>
+  </si>
+  <si>
+    <t>productVertifyRecordDao</t>
+  </si>
+  <si>
+    <t>productFullReductionMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductFullReductionMapper</t>
+  </si>
+  <si>
+    <t>prefrenceAreaProductRelationDao</t>
+  </si>
+  <si>
+    <t>subjectProductRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.CmsSubjectProductRelationMapper</t>
+  </si>
+  <si>
+    <t>productFullReductionDao</t>
+  </si>
+  <si>
+    <t>prefrenceAreaProductRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.CmsPrefrenceAreaProductRelationMapper</t>
+  </si>
+  <si>
+    <t>productAttributeValueMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductAttributeValueMapper</t>
+  </si>
+  <si>
+    <t>productDao</t>
+  </si>
+  <si>
+    <t>memberPriceMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsMemberPriceMapper</t>
+  </si>
+  <si>
     <t>productLadderMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.PmsProductLadderMapper</t>
   </si>
   <si>
-    <t>subjectProductRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.CmsSubjectProductRelationMapper</t>
-  </si>
-  <si>
     <t>subjectProductRelationDao</t>
   </si>
   <si>
-    <t>productAttributeValueDao</t>
-  </si>
-  <si>
-    <t>productAttributeValueMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductAttributeValueMapper</t>
-  </si>
-  <si>
-    <t>prefrenceAreaProductRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.CmsPrefrenceAreaProductRelationMapper</t>
-  </si>
-  <si>
-    <t>productVertifyRecordDao</t>
-  </si>
-  <si>
-    <t>prefrenceAreaProductRelationDao</t>
-  </si>
-  <si>
-    <t>productDao</t>
-  </si>
-  <si>
-    <t>memberPriceMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsMemberPriceMapper</t>
-  </si>
-  <si>
-    <t>productFullReductionDao</t>
-  </si>
-  <si>
-    <t>productFullReductionMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductFullReductionMapper</t>
-  </si>
-  <si>
     <t>memberPriceDao</t>
   </si>
   <si>
+    <t>roleDao</t>
+  </si>
+  <si>
     <t>roleMenuRelationMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.UmsRoleMenuRelationMapper</t>
   </si>
   <si>
-    <t>roleDao</t>
-  </si>
-  <si>
     <t>brandService</t>
   </si>
   <si>
@@ -2880,33 +2880,33 @@
     <t>product</t>
   </si>
   <si>
+    <t>productAttributeCategoryId</t>
+  </si>
+  <si>
+    <t>filterType</t>
+  </si>
+  <si>
     <t>handAddStatus</t>
   </si>
   <si>
+    <t>relatedStatus</t>
+  </si>
+  <si>
+    <t>selectType</t>
+  </si>
+  <si>
     <t>inputType</t>
   </si>
   <si>
+    <t>inputList</t>
+  </si>
+  <si>
     <t>searchType</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>filterType</t>
-  </si>
-  <si>
-    <t>selectType</t>
-  </si>
-  <si>
-    <t>relatedStatus</t>
-  </si>
-  <si>
-    <t>inputList</t>
-  </si>
-  <si>
-    <t>productAttributeCategoryId</t>
-  </si>
-  <si>
     <t>promotionSessionMapper</t>
   </si>
   <si>
@@ -2916,10 +2916,10 @@
     <t>email</t>
   </si>
   <si>
+    <t>nickName</t>
+  </si>
+  <si>
     <t>note</t>
-  </si>
-  <si>
-    <t>nickName</t>
   </si>
   <si>
     <t>productAttributeDao</t>
@@ -49952,7 +49952,7 @@
         <v>53</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>705</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -49960,13 +49960,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>12</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4">
@@ -49974,13 +49974,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>32</v>
+        <v>707</v>
       </c>
     </row>
     <row r="5">
@@ -50008,7 +50008,7 @@
         <v>53</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>604</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -50022,7 +50022,7 @@
         <v>53</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -50050,7 +50050,7 @@
         <v>53</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -50100,7 +50100,7 @@
         <v>625</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>53</v>
@@ -50148,7 +50148,7 @@
         <v>53</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>373</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17">
@@ -50162,7 +50162,7 @@
         <v>53</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>429</v>
+        <v>721</v>
       </c>
     </row>
     <row r="18">
@@ -50170,13 +50170,13 @@
         <v>45</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>722</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19">
@@ -50316,7 +50316,7 @@
         <v>53</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -50344,7 +50344,7 @@
         <v>53</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31">
@@ -50372,7 +50372,7 @@
         <v>53</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -50386,7 +50386,7 @@
         <v>53</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -50436,13 +50436,13 @@
         <v>143</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -50450,7 +50450,7 @@
         <v>143</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>53</v>
@@ -50464,7 +50464,7 @@
         <v>143</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>53</v>
@@ -50478,13 +50478,13 @@
         <v>143</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>745</v>
+        <v>710</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -50492,13 +50492,13 @@
         <v>143</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42">
@@ -50506,13 +50506,13 @@
         <v>143</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>712</v>
+        <v>746</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -50534,13 +50534,13 @@
         <v>169</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>748</v>
+        <v>710</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>172</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -50548,13 +50548,13 @@
         <v>169</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>712</v>
+        <v>748</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>32</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46">
@@ -50562,7 +50562,7 @@
         <v>169</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>53</v>
@@ -50848,7 +50848,7 @@
         <v>53</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67">
@@ -50890,7 +50890,7 @@
         <v>53</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">
@@ -50904,7 +50904,7 @@
         <v>53</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71">
@@ -50918,7 +50918,7 @@
         <v>53</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72">
@@ -50932,7 +50932,7 @@
         <v>53</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>32</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73">
@@ -50946,7 +50946,7 @@
         <v>53</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>172</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
@@ -50954,13 +50954,13 @@
         <v>266</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>779</v>
+        <v>738</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75">
@@ -50968,7 +50968,7 @@
         <v>266</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>53</v>
@@ -50982,13 +50982,13 @@
         <v>266</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>781</v>
+        <v>736</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
@@ -50996,13 +50996,13 @@
         <v>266</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78">
@@ -51010,7 +51010,7 @@
         <v>266</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>738</v>
+        <v>780</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>53</v>
@@ -51024,13 +51024,13 @@
         <v>266</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>739</v>
+        <v>781</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>139</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80">
@@ -51086,7 +51086,7 @@
         <v>53</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>190</v>
+        <v>786</v>
       </c>
     </row>
     <row r="84">
@@ -51094,13 +51094,13 @@
         <v>284</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>787</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85">
@@ -51262,13 +51262,13 @@
         <v>317</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>704</v>
+        <v>804</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>705</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
@@ -51276,13 +51276,13 @@
         <v>317</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>12</v>
+        <v>806</v>
       </c>
     </row>
     <row r="98">
@@ -51290,13 +51290,13 @@
         <v>317</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>805</v>
+        <v>706</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>806</v>
+        <v>707</v>
       </c>
     </row>
     <row r="99">
@@ -51324,7 +51324,7 @@
         <v>53</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>32</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101">
@@ -51380,7 +51380,7 @@
         <v>53</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>139</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105">
@@ -51436,7 +51436,7 @@
         <v>53</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>817</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109">
@@ -51444,13 +51444,13 @@
         <v>351</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="110">
@@ -51458,13 +51458,13 @@
         <v>351</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>100</v>
+        <v>820</v>
       </c>
     </row>
     <row r="111">
@@ -51478,7 +51478,7 @@
         <v>53</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>412</v>
+        <v>822</v>
       </c>
     </row>
     <row r="112">
@@ -51486,13 +51486,13 @@
         <v>351</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>189</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113">
@@ -51500,13 +51500,13 @@
         <v>351</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>824</v>
+        <v>412</v>
       </c>
     </row>
     <row r="114">
@@ -51716,7 +51716,7 @@
         <v>53</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>12</v>
+        <v>298</v>
       </c>
     </row>
     <row r="129">
@@ -51730,7 +51730,7 @@
         <v>53</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130">
@@ -51744,7 +51744,7 @@
         <v>53</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>12</v>
+        <v>844</v>
       </c>
     </row>
     <row r="131">
@@ -51752,13 +51752,13 @@
         <v>414</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>844</v>
+        <v>792</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132">
@@ -51766,13 +51766,13 @@
         <v>414</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>791</v>
+        <v>845</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133">
@@ -51780,13 +51780,13 @@
         <v>414</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>846</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134">
@@ -51800,7 +51800,7 @@
         <v>53</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>298</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135">
@@ -51926,7 +51926,7 @@
         <v>53</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>858</v>
+        <v>573</v>
       </c>
     </row>
     <row r="144">
@@ -51934,13 +51934,13 @@
         <v>439</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>328</v>
+        <v>859</v>
       </c>
     </row>
     <row r="145">
@@ -51968,7 +51968,7 @@
         <v>53</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>573</v>
+        <v>861</v>
       </c>
     </row>
     <row r="147">
@@ -51976,13 +51976,13 @@
         <v>439</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>862</v>
+        <v>328</v>
       </c>
     </row>
     <row r="148">
@@ -52018,13 +52018,13 @@
         <v>444</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="151">
@@ -52032,13 +52032,13 @@
         <v>444</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>776</v>
+        <v>865</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>139</v>
+        <v>32</v>
       </c>
     </row>
     <row r="152">
@@ -52046,13 +52046,13 @@
         <v>444</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153">
@@ -52060,13 +52060,13 @@
         <v>444</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154">
@@ -52074,7 +52074,7 @@
         <v>444</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>770</v>
+        <v>868</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>53</v>
@@ -52088,13 +52088,13 @@
         <v>444</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156">
@@ -52102,13 +52102,13 @@
         <v>444</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="157">
@@ -52116,13 +52116,13 @@
         <v>444</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>869</v>
+        <v>775</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="158">
@@ -52130,7 +52130,7 @@
         <v>444</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>870</v>
+        <v>769</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>53</v>
@@ -52164,7 +52164,7 @@
         <v>53</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161">
@@ -52178,7 +52178,7 @@
         <v>53</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="162">
@@ -52192,7 +52192,7 @@
         <v>53</v>
       </c>
       <c r="D162" t="s" s="0">
-        <v>876</v>
+        <v>366</v>
       </c>
     </row>
     <row r="163">
@@ -52200,13 +52200,13 @@
         <v>467</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>366</v>
+        <v>877</v>
       </c>
     </row>
     <row r="164">
@@ -52228,7 +52228,7 @@
         <v>470</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>53</v>
@@ -52248,7 +52248,7 @@
         <v>53</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="167">
@@ -52256,13 +52256,13 @@
         <v>474</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>735</v>
+        <v>879</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="168">
@@ -52270,7 +52270,7 @@
         <v>474</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>739</v>
+        <v>880</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>53</v>
@@ -52284,13 +52284,13 @@
         <v>474</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170">
@@ -52298,13 +52298,13 @@
         <v>474</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>880</v>
+        <v>737</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171">
@@ -52312,7 +52312,7 @@
         <v>474</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>881</v>
+        <v>739</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>53</v>
@@ -52354,13 +52354,13 @@
         <v>487</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>885</v>
+        <v>843</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>886</v>
+        <v>844</v>
       </c>
     </row>
     <row r="175">
@@ -52368,13 +52368,13 @@
         <v>487</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>330</v>
+        <v>886</v>
       </c>
     </row>
     <row r="176">
@@ -52382,13 +52382,13 @@
         <v>487</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>889</v>
+        <v>330</v>
       </c>
     </row>
     <row r="177">
@@ -52396,13 +52396,13 @@
         <v>487</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="178">
@@ -52410,7 +52410,7 @@
         <v>487</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>53</v>
@@ -52424,13 +52424,13 @@
         <v>487</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>845</v>
+        <v>891</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>846</v>
+        <v>892</v>
       </c>
     </row>
     <row r="180">
@@ -52578,7 +52578,7 @@
         <v>522</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>902</v>
+        <v>783</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>53</v>
@@ -52592,7 +52592,7 @@
         <v>522</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>784</v>
+        <v>902</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>53</v>
@@ -52634,7 +52634,7 @@
         <v>422</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>53</v>
@@ -52662,7 +52662,7 @@
         <v>422</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>53</v>
@@ -52844,13 +52844,13 @@
         <v>687</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>845</v>
+        <v>918</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D209" t="s" s="0">
-        <v>846</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210">
@@ -52858,7 +52858,7 @@
         <v>687</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>53</v>
@@ -52872,13 +52872,13 @@
         <v>687</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>919</v>
+        <v>843</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D211" t="s" s="0">
-        <v>12</v>
+        <v>844</v>
       </c>
     </row>
     <row r="212">
@@ -52928,13 +52928,13 @@
         <v>558</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>924</v>
+        <v>875</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D215" t="s" s="0">
-        <v>103</v>
+        <v>366</v>
       </c>
     </row>
     <row r="216">
@@ -52942,13 +52942,13 @@
         <v>558</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D216" t="s" s="0">
-        <v>926</v>
+        <v>103</v>
       </c>
     </row>
     <row r="217">
@@ -52956,13 +52956,13 @@
         <v>558</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D217" t="s" s="0">
-        <v>928</v>
+        <v>242</v>
       </c>
     </row>
     <row r="218">
@@ -52970,13 +52970,13 @@
         <v>558</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>929</v>
+        <v>876</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D218" t="s" s="0">
-        <v>102</v>
+        <v>877</v>
       </c>
     </row>
     <row r="219">
@@ -52984,13 +52984,13 @@
         <v>558</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D219" t="s" s="0">
-        <v>242</v>
+        <v>286</v>
       </c>
     </row>
     <row r="220">
@@ -52998,13 +52998,13 @@
         <v>558</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D220" t="s" s="0">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="221">
@@ -53012,13 +53012,13 @@
         <v>558</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C221" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D221" t="s" s="0">
-        <v>934</v>
+        <v>329</v>
       </c>
     </row>
     <row r="222">
@@ -53026,13 +53026,13 @@
         <v>558</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D222" t="s" s="0">
-        <v>286</v>
+        <v>931</v>
       </c>
     </row>
     <row r="223">
@@ -53040,13 +53040,13 @@
         <v>558</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C223" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D223" t="s" s="0">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="224">
@@ -53054,13 +53054,13 @@
         <v>558</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>762</v>
+        <v>932</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D224" t="s" s="0">
-        <v>763</v>
+        <v>104</v>
       </c>
     </row>
     <row r="225">
@@ -53068,13 +53068,13 @@
         <v>558</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D225" t="s" s="0">
-        <v>329</v>
+        <v>934</v>
       </c>
     </row>
     <row r="226">
@@ -53082,13 +53082,13 @@
         <v>558</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D226" t="s" s="0">
-        <v>291</v>
+        <v>936</v>
       </c>
     </row>
     <row r="227">
@@ -53096,13 +53096,13 @@
         <v>558</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D227" t="s" s="0">
-        <v>939</v>
+        <v>291</v>
       </c>
     </row>
     <row r="228">
@@ -53110,13 +53110,13 @@
         <v>558</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="C228" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D228" t="s" s="0">
-        <v>876</v>
+        <v>939</v>
       </c>
     </row>
     <row r="229">
@@ -53130,7 +53130,7 @@
         <v>53</v>
       </c>
       <c r="D229" t="s" s="0">
-        <v>104</v>
+        <v>941</v>
       </c>
     </row>
     <row r="230">
@@ -53138,13 +53138,13 @@
         <v>558</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>877</v>
+        <v>942</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D230" t="s" s="0">
-        <v>366</v>
+        <v>102</v>
       </c>
     </row>
     <row r="231">
@@ -53152,13 +53152,13 @@
         <v>558</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D231" t="s" s="0">
-        <v>942</v>
+        <v>231</v>
       </c>
     </row>
     <row r="232">
@@ -53166,13 +53166,13 @@
         <v>558</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>943</v>
+        <v>762</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D232" t="s" s="0">
-        <v>231</v>
+        <v>763</v>
       </c>
     </row>
     <row r="233">
@@ -53180,13 +53180,13 @@
         <v>566</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>752</v>
+        <v>800</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D233" t="s" s="0">
-        <v>482</v>
+        <v>801</v>
       </c>
     </row>
     <row r="234">
@@ -53194,13 +53194,13 @@
         <v>566</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>944</v>
+        <v>805</v>
       </c>
       <c r="C234" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D234" t="s" s="0">
-        <v>945</v>
+        <v>806</v>
       </c>
     </row>
     <row r="235">
@@ -53208,7 +53208,7 @@
         <v>566</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C235" t="s" s="0">
         <v>53</v>
@@ -53222,13 +53222,13 @@
         <v>566</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>800</v>
+        <v>945</v>
       </c>
       <c r="C236" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D236" t="s" s="0">
-        <v>801</v>
+        <v>946</v>
       </c>
     </row>
     <row r="237">
@@ -53236,13 +53236,13 @@
         <v>566</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>805</v>
+        <v>752</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D237" t="s" s="0">
-        <v>806</v>
+        <v>482</v>
       </c>
     </row>
     <row r="238">
@@ -53298,7 +53298,7 @@
         <v>53</v>
       </c>
       <c r="D241" t="s" s="0">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="242">
@@ -53312,7 +53312,7 @@
         <v>53</v>
       </c>
       <c r="D242" t="s" s="0">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243">
@@ -53340,7 +53340,7 @@
         <v>53</v>
       </c>
       <c r="D244" t="s" s="0">
-        <v>139</v>
+        <v>32</v>
       </c>
     </row>
     <row r="245">
@@ -53390,13 +53390,13 @@
         <v>584</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D248" t="s" s="0">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249">
@@ -53438,7 +53438,7 @@
         <v>53</v>
       </c>
       <c r="D251" t="s" s="0">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252">
@@ -53446,13 +53446,13 @@
         <v>584</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>959</v>
+        <v>775</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D252" t="s" s="0">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="253">
@@ -53460,13 +53460,13 @@
         <v>584</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D253" t="s" s="0">
-        <v>32</v>
+        <v>139</v>
       </c>
     </row>
     <row r="254">
@@ -53474,13 +53474,13 @@
         <v>584</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>771</v>
+        <v>960</v>
       </c>
       <c r="C254" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D254" t="s" s="0">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="255">
@@ -53488,13 +53488,13 @@
         <v>605</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>753</v>
+        <v>961</v>
       </c>
       <c r="C255" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D255" t="s" s="0">
-        <v>219</v>
+        <v>962</v>
       </c>
     </row>
     <row r="256">
@@ -53502,13 +53502,13 @@
         <v>605</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>961</v>
+        <v>753</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D256" t="s" s="0">
-        <v>962</v>
+        <v>219</v>
       </c>
     </row>
     <row r="257">
@@ -53516,7 +53516,7 @@
         <v>607</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>870</v>
+        <v>963</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>53</v>
@@ -53530,7 +53530,7 @@
         <v>607</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>963</v>
+        <v>783</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>53</v>
@@ -53558,7 +53558,7 @@
         <v>607</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>784</v>
+        <v>869</v>
       </c>
       <c r="C260" t="s" s="0">
         <v>53</v>
@@ -53572,7 +53572,7 @@
         <v>607</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>783</v>
+        <v>965</v>
       </c>
       <c r="C261" t="s" s="0">
         <v>53</v>
@@ -53586,7 +53586,7 @@
         <v>607</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>965</v>
+        <v>784</v>
       </c>
       <c r="C262" t="s" s="0">
         <v>53</v>
@@ -53600,13 +53600,13 @@
         <v>615</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>966</v>
+        <v>794</v>
       </c>
       <c r="C263" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D263" t="s" s="0">
-        <v>427</v>
+        <v>795</v>
       </c>
     </row>
     <row r="264">
@@ -53614,13 +53614,13 @@
         <v>615</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>794</v>
+        <v>966</v>
       </c>
       <c r="C264" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D264" t="s" s="0">
-        <v>795</v>
+        <v>427</v>
       </c>
     </row>
     <row r="265">
@@ -63284,7 +63284,7 @@
         <v>552</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>974</v>
@@ -63301,7 +63301,7 @@
         <v>552</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>974</v>
@@ -63318,7 +63318,7 @@
         <v>552</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>974</v>
@@ -63335,7 +63335,7 @@
         <v>552</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>974</v>
@@ -63352,7 +63352,7 @@
         <v>552</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>974</v>
@@ -63369,7 +63369,7 @@
         <v>552</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>974</v>
@@ -63386,7 +63386,7 @@
         <v>552</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>974</v>
@@ -63403,7 +63403,7 @@
         <v>552</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>974</v>
@@ -63420,7 +63420,7 @@
         <v>552</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>974</v>
@@ -63437,7 +63437,7 @@
         <v>552</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>974</v>
@@ -63454,7 +63454,7 @@
         <v>552</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>974</v>
@@ -63471,7 +63471,7 @@
         <v>552</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>974</v>
@@ -63488,7 +63488,7 @@
         <v>552</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>974</v>
@@ -63505,7 +63505,7 @@
         <v>552</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>974</v>

--- a/data/mall-swarm/mall-admin_structure.xlsx
+++ b/data/mall-swarm/mall-admin_structure.xlsx
@@ -2136,21 +2136,21 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>redisService</t>
+  </si>
+  <si>
+    <t>com.macro.mall.common.service.RedisService</t>
+  </si>
+  <si>
+    <t>REDIS_KEY_ADMIN</t>
+  </si>
+  <si>
     <t>REDIS_DATABASE</t>
   </si>
   <si>
     <t>adminService</t>
   </si>
   <si>
-    <t>redisService</t>
-  </si>
-  <si>
-    <t>com.macro.mall.common.service.RedisService</t>
-  </si>
-  <si>
-    <t>REDIS_KEY_ADMIN</t>
-  </si>
-  <si>
     <t>REDIS_EXPIRE</t>
   </si>
   <si>
@@ -2181,30 +2181,30 @@
     <t>com.macro.mall.mapper.OmsOrderMapper</t>
   </si>
   <si>
+    <t>orderOperateHistoryDao</t>
+  </si>
+  <si>
+    <t>orderOperateHistoryMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.OmsOrderOperateHistoryMapper</t>
+  </si>
+  <si>
     <t>orderDao</t>
   </si>
   <si>
-    <t>orderOperateHistoryMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.OmsOrderOperateHistoryMapper</t>
-  </si>
-  <si>
-    <t>orderOperateHistoryDao</t>
-  </si>
-  <si>
     <t>menuMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.UmsMenuMapper</t>
   </si>
   <si>
+    <t>historyList</t>
+  </si>
+  <si>
     <t>orderItemList</t>
   </si>
   <si>
-    <t>historyList</t>
-  </si>
-  <si>
     <t>attributeId</t>
   </si>
   <si>
@@ -2226,54 +2226,54 @@
     <t>productCategoryService</t>
   </si>
   <si>
+    <t>receiverKeyword</t>
+  </si>
+  <si>
+    <t>createTime</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>handleMan</t>
+  </si>
+  <si>
     <t>handleTime</t>
   </si>
   <si>
-    <t>handleMan</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>createTime</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>receiverKeyword</t>
+    <t>receiverProvince</t>
   </si>
   <si>
     <t>receiverName</t>
   </si>
   <si>
+    <t>receiverPhone</t>
+  </si>
+  <si>
+    <t>receiverCity</t>
+  </si>
+  <si>
+    <t>receiverRegion</t>
+  </si>
+  <si>
     <t>receiverDetailAddress</t>
   </si>
   <si>
-    <t>receiverCity</t>
-  </si>
-  <si>
-    <t>receiverPhone</t>
-  </si>
-  <si>
-    <t>receiverRegion</t>
-  </si>
-  <si>
-    <t>receiverProvince</t>
-  </si>
-  <si>
     <t>receiverPostCode</t>
   </si>
   <si>
     <t>children</t>
   </si>
   <si>
+    <t>discountAmount</t>
+  </si>
+  <si>
     <t>freightAmount</t>
   </si>
   <si>
-    <t>discountAmount</t>
-  </si>
-  <si>
     <t>memberLevelMapper</t>
   </si>
   <si>
@@ -2289,27 +2289,27 @@
     <t>homeBrandService</t>
   </si>
   <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>mimeType</t>
+  </si>
+  <si>
     <t>filename</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>width</t>
   </si>
   <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>mimeType</t>
-  </si>
-  <si>
-    <t>size</t>
+    <t>productCategoryRelationList</t>
   </si>
   <si>
     <t>productRelationList</t>
   </si>
   <si>
-    <t>productCategoryRelationList</t>
-  </si>
-  <si>
     <t>productMapper</t>
   </si>
   <si>
@@ -2322,63 +2322,63 @@
     <t>com.macro.mall.mapper.PmsBrandMapper</t>
   </si>
   <si>
+    <t>callbackBodyType</t>
+  </si>
+  <si>
     <t>callbackUrl</t>
   </si>
   <si>
-    <t>callbackBodyType</t>
-  </si>
-  <si>
     <t>callbackBody</t>
   </si>
   <si>
+    <t>factoryStatus</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>brandStory</t>
+  </si>
+  <si>
     <t>showStatus</t>
   </si>
   <si>
-    <t>factoryStatus</t>
-  </si>
-  <si>
-    <t>brandStory</t>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>bigPic</t>
   </si>
   <si>
     <t>firstLetter</t>
   </si>
   <si>
-    <t>bigPic</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
     <t>returnAmount</t>
   </si>
   <si>
     <t>handleNote</t>
   </si>
   <si>
+    <t>receiveNote</t>
+  </si>
+  <si>
+    <t>companyAddressId</t>
+  </si>
+  <si>
     <t>receiveMan</t>
   </si>
   <si>
-    <t>receiveNote</t>
-  </si>
-  <si>
-    <t>companyAddressId</t>
-  </si>
-  <si>
     <t>advertiseService</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>relationMapper</t>
   </si>
   <si>
@@ -2394,24 +2394,24 @@
     <t>historyService</t>
   </si>
   <si>
+    <t>ALIYUN_OSS_ENDPOINT</t>
+  </si>
+  <si>
     <t>ALIYUN_OSS_ACCESSKEYSECRET</t>
   </si>
   <si>
     <t>ALIYUN_OSS_ACCESSKEYID</t>
   </si>
   <si>
-    <t>ALIYUN_OSS_ENDPOINT</t>
+    <t>productAttributeCategoryMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductAttributeCategoryMapper</t>
   </si>
   <si>
     <t>productAttributeCategoryDao</t>
   </si>
   <si>
-    <t>productAttributeCategoryMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductAttributeCategoryMapper</t>
-  </si>
-  <si>
     <t>recommendProductMapper</t>
   </si>
   <si>
@@ -2424,78 +2424,78 @@
     <t>com.macro.mall.mapper.OmsOrderSettingMapper</t>
   </si>
   <si>
+    <t>resourceMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsResourceMapper</t>
+  </si>
+  <si>
     <t>roleMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.UmsRoleMapper</t>
   </si>
   <si>
-    <t>resourceMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsResourceMapper</t>
+    <t>roleResourceRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsRoleResourceRelationMapper</t>
   </si>
   <si>
     <t>applicationName</t>
   </si>
   <si>
-    <t>roleResourceRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsRoleResourceRelationMapper</t>
-  </si>
-  <si>
     <t>productAttributeService</t>
   </si>
   <si>
+    <t>productSn</t>
+  </si>
+  <si>
+    <t>brandId</t>
+  </si>
+  <si>
+    <t>verifyStatus</t>
+  </si>
+  <si>
     <t>publishStatus</t>
   </si>
   <si>
+    <t>productCategoryId</t>
+  </si>
+  <si>
     <t>keyword</t>
   </si>
   <si>
-    <t>verifyStatus</t>
-  </si>
-  <si>
-    <t>productSn</t>
-  </si>
-  <si>
-    <t>productCategoryId</t>
-  </si>
-  <si>
-    <t>brandId</t>
-  </si>
-  <si>
     <t>memberLevelService</t>
   </si>
   <si>
     <t>productAttributeCategoryService</t>
   </si>
   <si>
+    <t>productRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsCouponProductRelationMapper</t>
+  </si>
+  <si>
+    <t>productCategoryRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsCouponProductCategoryRelationMapper</t>
+  </si>
+  <si>
+    <t>productCategoryRelationDao</t>
+  </si>
+  <si>
+    <t>couponMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsCouponMapper</t>
+  </si>
+  <si>
     <t>productRelationDao</t>
   </si>
   <si>
-    <t>couponMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsCouponMapper</t>
-  </si>
-  <si>
-    <t>productRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsCouponProductRelationMapper</t>
-  </si>
-  <si>
-    <t>productCategoryRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsCouponProductCategoryRelationMapper</t>
-  </si>
-  <si>
-    <t>productCategoryRelationDao</t>
-  </si>
-  <si>
     <t>couponDao</t>
   </si>
   <si>
@@ -2547,96 +2547,96 @@
     <t>ALIYUN_OSS_DIR_PREFIX</t>
   </si>
   <si>
+    <t>LOGGER</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
+    <t>ALIYUN_OSS_MAX_SIZE</t>
+  </si>
+  <si>
+    <t>ALIYUN_OSS_CALLBACK</t>
+  </si>
+  <si>
     <t>ossClient</t>
   </si>
   <si>
     <t>ALIYUN_OSS_BUCKET_NAME</t>
   </si>
   <si>
-    <t>LOGGER</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
     <t>ALIYUN_OSS_EXPIRE</t>
   </si>
   <si>
-    <t>ALIYUN_OSS_CALLBACK</t>
-  </si>
-  <si>
-    <t>ALIYUN_OSS_MAX_SIZE</t>
-  </si>
-  <si>
     <t>com.macro.mall.mapper.SmsHomeRecommendSubjectMapper</t>
   </si>
   <si>
     <t>prefrenceAreaService</t>
   </si>
   <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
     <t>Action</t>
   </si>
   <si>
     <t>Effect</t>
   </si>
   <si>
-    <t>Principal</t>
-  </si>
-  <si>
-    <t>Resource</t>
+    <t>returnApplyMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.OmsOrderReturnApplyMapper</t>
   </si>
   <si>
     <t>returnApplyDao</t>
   </si>
   <si>
-    <t>returnApplyMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.OmsOrderReturnApplyMapper</t>
+    <t>productCategoryMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductCategoryMapper</t>
+  </si>
+  <si>
+    <t>productCategoryAttributeRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductCategoryAttributeRelationMapper</t>
   </si>
   <si>
     <t>productCategoryAttributeRelationDao</t>
   </si>
   <si>
-    <t>productCategoryMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductCategoryMapper</t>
-  </si>
-  <si>
-    <t>productCategoryAttributeRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductCategoryAttributeRelationMapper</t>
-  </si>
-  <si>
     <t>productCategoryDao</t>
   </si>
   <si>
     <t>orderSettingService</t>
   </si>
   <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>productAttributeIdList</t>
+  </si>
+  <si>
+    <t>navStatus</t>
+  </si>
+  <si>
+    <t>parentId</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
     <t>productUnit</t>
   </si>
   <si>
-    <t>parentId</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>navStatus</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>productAttributeIdList</t>
-  </si>
-  <si>
     <t>homeBrandMapper</t>
   </si>
   <si>
@@ -2649,60 +2649,60 @@
     <t>Statement</t>
   </si>
   <si>
+    <t>skuStockMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsSkuStockMapper</t>
+  </si>
+  <si>
     <t>skuStockDao</t>
   </si>
   <si>
-    <t>skuStockMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsSkuStockMapper</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
+    <t>sourceType</t>
+  </si>
+  <si>
+    <t>orderSn</t>
+  </si>
+  <si>
     <t>orderType</t>
   </si>
   <si>
-    <t>sourceType</t>
-  </si>
-  <si>
-    <t>orderSn</t>
-  </si>
-  <si>
     <t>productAttributeList</t>
   </si>
   <si>
+    <t>adminRoleRelationDao</t>
+  </si>
+  <si>
+    <t>loginLogMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsAdminLoginLogMapper</t>
+  </si>
+  <si>
+    <t>adminMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsAdminMapper</t>
+  </si>
+  <si>
+    <t>adminRoleRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsAdminRoleRelationMapper</t>
+  </si>
+  <si>
+    <t>authService</t>
+  </si>
+  <si>
     <t>request</t>
   </si>
   <si>
     <t>javax.servlet.http.HttpServletRequest</t>
   </si>
   <si>
-    <t>loginLogMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsAdminLoginLogMapper</t>
-  </si>
-  <si>
-    <t>authService</t>
-  </si>
-  <si>
-    <t>adminMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsAdminMapper</t>
-  </si>
-  <si>
-    <t>adminRoleRelationDao</t>
-  </si>
-  <si>
-    <t>adminRoleRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsAdminRoleRelationMapper</t>
-  </si>
-  <si>
     <t>companyAddress</t>
   </si>
   <si>
@@ -2712,30 +2712,30 @@
     <t>ossService</t>
   </si>
   <si>
+    <t>signature</t>
+  </si>
+  <si>
     <t>dir</t>
   </si>
   <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>callback</t>
+  </si>
+  <si>
     <t>policy</t>
   </si>
   <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>callback</t>
-  </si>
-  <si>
-    <t>signature</t>
-  </si>
-  <si>
     <t>accessKeyId</t>
   </si>
   <si>
+    <t>newPassword</t>
+  </si>
+  <si>
     <t>oldPassword</t>
   </si>
   <si>
-    <t>newPassword</t>
-  </si>
-  <si>
     <t>resourceCategoryService</t>
   </si>
   <si>
@@ -2754,10 +2754,16 @@
     <t>productFullReductionList</t>
   </si>
   <si>
+    <t>productAttributeValueList</t>
+  </si>
+  <si>
+    <t>skuStockList</t>
+  </si>
+  <si>
     <t>memberPriceList</t>
   </si>
   <si>
-    <t>productAttributeValueList</t>
+    <t>productLadderList</t>
   </si>
   <si>
     <t>subjectProductRelationList</t>
@@ -2766,27 +2772,21 @@
     <t>prefrenceAreaProductRelationList</t>
   </si>
   <si>
-    <t>productLadderList</t>
-  </si>
-  <si>
-    <t>skuStockList</t>
-  </si>
-  <si>
     <t>flashPromotionSessionService</t>
   </si>
   <si>
+    <t>BUCKET_NAME</t>
+  </si>
+  <si>
+    <t>ACCESS_KEY</t>
+  </si>
+  <si>
     <t>SECRET_KEY</t>
   </si>
   <si>
     <t>ENDPOINT</t>
   </si>
   <si>
-    <t>BUCKET_NAME</t>
-  </si>
-  <si>
-    <t>ACCESS_KEY</t>
-  </si>
-  <si>
     <t>advertiseMapper</t>
   </si>
   <si>
@@ -2796,52 +2796,58 @@
     <t>returnApplyService</t>
   </si>
   <si>
+    <t>productFullReductionMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductFullReductionMapper</t>
+  </si>
+  <si>
+    <t>prefrenceAreaProductRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.CmsPrefrenceAreaProductRelationMapper</t>
+  </si>
+  <si>
+    <t>subjectProductRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.CmsSubjectProductRelationMapper</t>
+  </si>
+  <si>
+    <t>prefrenceAreaProductRelationDao</t>
+  </si>
+  <si>
     <t>productLadderDao</t>
   </si>
   <si>
+    <t>memberPriceDao</t>
+  </si>
+  <si>
+    <t>productVertifyRecordDao</t>
+  </si>
+  <si>
     <t>productAttributeValueDao</t>
   </si>
   <si>
-    <t>productVertifyRecordDao</t>
-  </si>
-  <si>
-    <t>productFullReductionMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductFullReductionMapper</t>
-  </si>
-  <si>
-    <t>prefrenceAreaProductRelationDao</t>
-  </si>
-  <si>
-    <t>subjectProductRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.CmsSubjectProductRelationMapper</t>
+    <t>productAttributeValueMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductAttributeValueMapper</t>
+  </si>
+  <si>
+    <t>productDao</t>
+  </si>
+  <si>
+    <t>memberPriceMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsMemberPriceMapper</t>
   </si>
   <si>
     <t>productFullReductionDao</t>
   </si>
   <si>
-    <t>prefrenceAreaProductRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.CmsPrefrenceAreaProductRelationMapper</t>
-  </si>
-  <si>
-    <t>productAttributeValueMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductAttributeValueMapper</t>
-  </si>
-  <si>
-    <t>productDao</t>
-  </si>
-  <si>
-    <t>memberPriceMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsMemberPriceMapper</t>
+    <t>subjectProductRelationDao</t>
   </si>
   <si>
     <t>productLadderMapper</t>
@@ -2850,21 +2856,15 @@
     <t>com.macro.mall.mapper.PmsProductLadderMapper</t>
   </si>
   <si>
-    <t>subjectProductRelationDao</t>
-  </si>
-  <si>
-    <t>memberPriceDao</t>
+    <t>roleMenuRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsRoleMenuRelationMapper</t>
   </si>
   <si>
     <t>roleDao</t>
   </si>
   <si>
-    <t>roleMenuRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsRoleMenuRelationMapper</t>
-  </si>
-  <si>
     <t>brandService</t>
   </si>
   <si>
@@ -2883,22 +2883,22 @@
     <t>productAttributeCategoryId</t>
   </si>
   <si>
+    <t>inputList</t>
+  </si>
+  <si>
+    <t>relatedStatus</t>
+  </si>
+  <si>
+    <t>selectType</t>
+  </si>
+  <si>
+    <t>inputType</t>
+  </si>
+  <si>
+    <t>handAddStatus</t>
+  </si>
+  <si>
     <t>filterType</t>
-  </si>
-  <si>
-    <t>handAddStatus</t>
-  </si>
-  <si>
-    <t>relatedStatus</t>
-  </si>
-  <si>
-    <t>selectType</t>
-  </si>
-  <si>
-    <t>inputType</t>
-  </si>
-  <si>
-    <t>inputList</t>
   </si>
   <si>
     <t>searchType</t>
@@ -49952,7 +49952,7 @@
         <v>53</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>12</v>
+        <v>705</v>
       </c>
     </row>
     <row r="3">
@@ -49960,13 +49960,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>604</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -49974,13 +49974,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>707</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -49994,7 +49994,7 @@
         <v>53</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>12</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6">
@@ -50100,7 +50100,7 @@
         <v>625</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>53</v>
@@ -50148,7 +50148,7 @@
         <v>53</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>429</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17">
@@ -50176,7 +50176,7 @@
         <v>53</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>373</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19">
@@ -50358,7 +50358,7 @@
         <v>53</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -50372,7 +50372,7 @@
         <v>53</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -50450,13 +50450,13 @@
         <v>143</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>744</v>
+        <v>710</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -50464,7 +50464,7 @@
         <v>143</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>53</v>
@@ -50478,13 +50478,13 @@
         <v>143</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>710</v>
+        <v>736</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>32</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41">
@@ -50492,13 +50492,13 @@
         <v>143</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -50548,13 +50548,13 @@
         <v>169</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>172</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46">
@@ -50562,13 +50562,13 @@
         <v>169</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>139</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47">
@@ -50820,7 +50820,7 @@
         <v>53</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
@@ -50834,7 +50834,7 @@
         <v>53</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -50848,7 +50848,7 @@
         <v>53</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -50876,7 +50876,7 @@
         <v>53</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69">
@@ -50890,7 +50890,7 @@
         <v>53</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70">
@@ -50904,7 +50904,7 @@
         <v>53</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
@@ -50940,13 +50940,13 @@
         <v>266</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>778</v>
+        <v>737</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74">
@@ -50954,13 +50954,13 @@
         <v>266</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>738</v>
+        <v>778</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75">
@@ -50996,13 +50996,13 @@
         <v>266</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>735</v>
+        <v>780</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78">
@@ -51010,7 +51010,7 @@
         <v>266</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>780</v>
+        <v>738</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>53</v>
@@ -51030,7 +51030,7 @@
         <v>53</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
@@ -51184,7 +51184,7 @@
         <v>53</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>361</v>
+        <v>794</v>
       </c>
     </row>
     <row r="91">
@@ -51192,13 +51192,13 @@
         <v>299</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>795</v>
+        <v>361</v>
       </c>
     </row>
     <row r="92">
@@ -51268,7 +51268,7 @@
         <v>53</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>12</v>
+        <v>805</v>
       </c>
     </row>
     <row r="97">
@@ -51276,13 +51276,13 @@
         <v>317</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>805</v>
+        <v>704</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>806</v>
+        <v>705</v>
       </c>
     </row>
     <row r="98">
@@ -51290,13 +51290,13 @@
         <v>317</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>706</v>
+        <v>806</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>707</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
@@ -51324,7 +51324,7 @@
         <v>53</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101">
@@ -51338,7 +51338,7 @@
         <v>53</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102">
@@ -51366,7 +51366,7 @@
         <v>53</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104">
@@ -51394,7 +51394,7 @@
         <v>53</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106">
@@ -51436,7 +51436,7 @@
         <v>53</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>189</v>
+        <v>817</v>
       </c>
     </row>
     <row r="109">
@@ -51444,13 +51444,13 @@
         <v>351</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="110">
@@ -51458,13 +51458,13 @@
         <v>351</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>820</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111">
@@ -51492,7 +51492,7 @@
         <v>53</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>100</v>
+        <v>189</v>
       </c>
     </row>
     <row r="113">
@@ -51716,7 +51716,7 @@
         <v>53</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>298</v>
+        <v>842</v>
       </c>
     </row>
     <row r="129">
@@ -51724,13 +51724,13 @@
         <v>414</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130">
@@ -51738,13 +51738,13 @@
         <v>414</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>844</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131">
@@ -51752,13 +51752,13 @@
         <v>414</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>792</v>
+        <v>845</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>12</v>
+        <v>298</v>
       </c>
     </row>
     <row r="132">
@@ -51766,13 +51766,13 @@
         <v>414</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133">
@@ -51780,7 +51780,7 @@
         <v>414</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>846</v>
+        <v>790</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>53</v>
@@ -51898,7 +51898,7 @@
         <v>53</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>554</v>
+        <v>855</v>
       </c>
     </row>
     <row r="142">
@@ -51906,13 +51906,13 @@
         <v>437</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>856</v>
+        <v>554</v>
       </c>
     </row>
     <row r="143">
@@ -51926,7 +51926,7 @@
         <v>53</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>573</v>
+        <v>858</v>
       </c>
     </row>
     <row r="144">
@@ -51934,13 +51934,13 @@
         <v>439</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="145">
@@ -51962,13 +51962,13 @@
         <v>439</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>861</v>
+        <v>573</v>
       </c>
     </row>
     <row r="147">
@@ -52018,13 +52018,13 @@
         <v>444</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>770</v>
+        <v>865</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>139</v>
+        <v>40</v>
       </c>
     </row>
     <row r="151">
@@ -52032,13 +52032,13 @@
         <v>444</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>32</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152">
@@ -52046,13 +52046,13 @@
         <v>444</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="153">
@@ -52060,13 +52060,13 @@
         <v>444</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>867</v>
+        <v>774</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="154">
@@ -52080,7 +52080,7 @@
         <v>53</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155">
@@ -52088,7 +52088,7 @@
         <v>444</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>869</v>
+        <v>770</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>53</v>
@@ -52102,13 +52102,13 @@
         <v>444</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>870</v>
+        <v>773</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>40</v>
+        <v>139</v>
       </c>
     </row>
     <row r="157">
@@ -52116,13 +52116,13 @@
         <v>444</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>775</v>
+        <v>869</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158">
@@ -52130,7 +52130,7 @@
         <v>444</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>769</v>
+        <v>870</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>53</v>
@@ -52192,7 +52192,7 @@
         <v>53</v>
       </c>
       <c r="D162" t="s" s="0">
-        <v>366</v>
+        <v>876</v>
       </c>
     </row>
     <row r="163">
@@ -52200,13 +52200,13 @@
         <v>467</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>877</v>
+        <v>366</v>
       </c>
     </row>
     <row r="164">
@@ -52214,7 +52214,7 @@
         <v>470</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>878</v>
+        <v>770</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>53</v>
@@ -52228,7 +52228,7 @@
         <v>470</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>769</v>
+        <v>878</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>53</v>
@@ -52242,13 +52242,13 @@
         <v>474</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167">
@@ -52256,7 +52256,7 @@
         <v>474</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>879</v>
+        <v>736</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>53</v>
@@ -52270,7 +52270,7 @@
         <v>474</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>53</v>
@@ -52284,7 +52284,7 @@
         <v>474</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>53</v>
@@ -52298,7 +52298,7 @@
         <v>474</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>53</v>
@@ -52312,13 +52312,13 @@
         <v>474</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>739</v>
+        <v>881</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="172">
@@ -52346,7 +52346,7 @@
         <v>53</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>884</v>
+        <v>179</v>
       </c>
     </row>
     <row r="174">
@@ -52354,13 +52354,13 @@
         <v>487</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>843</v>
+        <v>884</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>844</v>
+        <v>885</v>
       </c>
     </row>
     <row r="175">
@@ -52368,13 +52368,13 @@
         <v>487</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="176">
@@ -52382,13 +52382,13 @@
         <v>487</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>330</v>
+        <v>889</v>
       </c>
     </row>
     <row r="177">
@@ -52396,13 +52396,13 @@
         <v>487</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>888</v>
+        <v>841</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>889</v>
+        <v>842</v>
       </c>
     </row>
     <row r="178">
@@ -52416,7 +52416,7 @@
         <v>53</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>179</v>
+        <v>330</v>
       </c>
     </row>
     <row r="179">
@@ -52578,7 +52578,7 @@
         <v>522</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>53</v>
@@ -52634,7 +52634,7 @@
         <v>422</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>53</v>
@@ -52648,7 +52648,7 @@
         <v>422</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>53</v>
@@ -52662,7 +52662,7 @@
         <v>422</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>53</v>
@@ -52676,7 +52676,7 @@
         <v>422</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>53</v>
@@ -52872,13 +52872,13 @@
         <v>687</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D211" t="s" s="0">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="212">
@@ -52928,13 +52928,13 @@
         <v>558</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>875</v>
+        <v>924</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D215" t="s" s="0">
-        <v>366</v>
+        <v>925</v>
       </c>
     </row>
     <row r="216">
@@ -52942,13 +52942,13 @@
         <v>558</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>924</v>
+        <v>875</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D216" t="s" s="0">
-        <v>103</v>
+        <v>876</v>
       </c>
     </row>
     <row r="217">
@@ -52956,13 +52956,13 @@
         <v>558</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D217" t="s" s="0">
-        <v>242</v>
+        <v>927</v>
       </c>
     </row>
     <row r="218">
@@ -52970,13 +52970,13 @@
         <v>558</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>876</v>
+        <v>928</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D218" t="s" s="0">
-        <v>877</v>
+        <v>929</v>
       </c>
     </row>
     <row r="219">
@@ -52984,13 +52984,13 @@
         <v>558</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D219" t="s" s="0">
-        <v>286</v>
+        <v>329</v>
       </c>
     </row>
     <row r="220">
@@ -52998,13 +52998,13 @@
         <v>558</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D220" t="s" s="0">
-        <v>928</v>
+        <v>103</v>
       </c>
     </row>
     <row r="221">
@@ -53012,13 +53012,13 @@
         <v>558</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="C221" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D221" t="s" s="0">
-        <v>329</v>
+        <v>231</v>
       </c>
     </row>
     <row r="222">
@@ -53026,13 +53026,13 @@
         <v>558</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D222" t="s" s="0">
-        <v>931</v>
+        <v>286</v>
       </c>
     </row>
     <row r="223">
@@ -53040,13 +53040,13 @@
         <v>558</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>843</v>
+        <v>934</v>
       </c>
       <c r="C223" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D223" t="s" s="0">
-        <v>844</v>
+        <v>242</v>
       </c>
     </row>
     <row r="224">
@@ -53054,13 +53054,13 @@
         <v>558</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D224" t="s" s="0">
-        <v>104</v>
+        <v>936</v>
       </c>
     </row>
     <row r="225">
@@ -53068,13 +53068,13 @@
         <v>558</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>933</v>
+        <v>877</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D225" t="s" s="0">
-        <v>934</v>
+        <v>366</v>
       </c>
     </row>
     <row r="226">
@@ -53082,13 +53082,13 @@
         <v>558</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D226" t="s" s="0">
-        <v>936</v>
+        <v>291</v>
       </c>
     </row>
     <row r="227">
@@ -53096,13 +53096,13 @@
         <v>558</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D227" t="s" s="0">
-        <v>291</v>
+        <v>939</v>
       </c>
     </row>
     <row r="228">
@@ -53110,13 +53110,13 @@
         <v>558</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C228" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D228" t="s" s="0">
-        <v>939</v>
+        <v>104</v>
       </c>
     </row>
     <row r="229">
@@ -53124,13 +53124,13 @@
         <v>558</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D229" t="s" s="0">
-        <v>941</v>
+        <v>102</v>
       </c>
     </row>
     <row r="230">
@@ -53144,7 +53144,7 @@
         <v>53</v>
       </c>
       <c r="D230" t="s" s="0">
-        <v>102</v>
+        <v>943</v>
       </c>
     </row>
     <row r="231">
@@ -53152,13 +53152,13 @@
         <v>558</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>943</v>
+        <v>841</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D231" t="s" s="0">
-        <v>231</v>
+        <v>842</v>
       </c>
     </row>
     <row r="232">
@@ -53180,13 +53180,13 @@
         <v>566</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D233" t="s" s="0">
-        <v>801</v>
+        <v>945</v>
       </c>
     </row>
     <row r="234">
@@ -53194,13 +53194,13 @@
         <v>566</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>805</v>
+        <v>752</v>
       </c>
       <c r="C234" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D234" t="s" s="0">
-        <v>806</v>
+        <v>482</v>
       </c>
     </row>
     <row r="235">
@@ -53208,13 +53208,13 @@
         <v>566</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>944</v>
+        <v>802</v>
       </c>
       <c r="C235" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D235" t="s" s="0">
-        <v>374</v>
+        <v>803</v>
       </c>
     </row>
     <row r="236">
@@ -53222,13 +53222,13 @@
         <v>566</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C236" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D236" t="s" s="0">
-        <v>946</v>
+        <v>374</v>
       </c>
     </row>
     <row r="237">
@@ -53236,13 +53236,13 @@
         <v>566</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>752</v>
+        <v>804</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D237" t="s" s="0">
-        <v>482</v>
+        <v>805</v>
       </c>
     </row>
     <row r="238">
@@ -53354,7 +53354,7 @@
         <v>53</v>
       </c>
       <c r="D245" t="s" s="0">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246">
@@ -53362,7 +53362,7 @@
         <v>584</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>954</v>
+        <v>774</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>53</v>
@@ -53376,7 +53376,7 @@
         <v>584</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>53</v>
@@ -53390,7 +53390,7 @@
         <v>584</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>53</v>
@@ -53404,7 +53404,7 @@
         <v>584</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C249" t="s" s="0">
         <v>53</v>
@@ -53418,7 +53418,7 @@
         <v>584</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>53</v>
@@ -53432,13 +53432,13 @@
         <v>584</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D251" t="s" s="0">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="252">
@@ -53446,7 +53446,7 @@
         <v>584</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>775</v>
+        <v>958</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>53</v>
@@ -53530,7 +53530,7 @@
         <v>607</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>783</v>
+        <v>964</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>53</v>
@@ -53544,7 +53544,7 @@
         <v>607</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>964</v>
+        <v>864</v>
       </c>
       <c r="C259" t="s" s="0">
         <v>53</v>
@@ -53558,7 +53558,7 @@
         <v>607</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>869</v>
+        <v>783</v>
       </c>
       <c r="C260" t="s" s="0">
         <v>53</v>
@@ -53572,7 +53572,7 @@
         <v>607</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>965</v>
+        <v>784</v>
       </c>
       <c r="C261" t="s" s="0">
         <v>53</v>
@@ -53586,7 +53586,7 @@
         <v>607</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>784</v>
+        <v>965</v>
       </c>
       <c r="C262" t="s" s="0">
         <v>53</v>
@@ -53600,13 +53600,13 @@
         <v>615</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C263" t="s" s="0">
         <v>53</v>
       </c>
       <c r="D263" t="s" s="0">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="264">
@@ -63284,7 +63284,7 @@
         <v>552</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>974</v>
@@ -63301,7 +63301,7 @@
         <v>552</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>974</v>
@@ -63318,7 +63318,7 @@
         <v>552</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>974</v>
@@ -63335,7 +63335,7 @@
         <v>552</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>974</v>
@@ -63352,7 +63352,7 @@
         <v>552</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>974</v>
@@ -63403,7 +63403,7 @@
         <v>552</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>974</v>
@@ -63420,7 +63420,7 @@
         <v>552</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>974</v>
@@ -63437,7 +63437,7 @@
         <v>552</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>974</v>
@@ -63454,7 +63454,7 @@
         <v>552</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>974</v>
@@ -63471,7 +63471,7 @@
         <v>552</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>974</v>
@@ -63488,7 +63488,7 @@
         <v>552</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>974</v>
@@ -63505,7 +63505,7 @@
         <v>552</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>974</v>
